--- a/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
@@ -418,25 +418,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>12.62399045845414</v>
+        <v>12.62399045845425</v>
       </c>
       <c r="E2">
-        <v>35.82378569588152</v>
+        <v>35.82378569588133</v>
       </c>
       <c r="F2">
-        <v>80.46489691719354</v>
+        <v>80.46489691719316</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.31252177747349</v>
+        <v>9.31252177747348</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>76.68518355841469</v>
+        <v>76.68518355841437</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.77255778883505</v>
+        <v>7.772557788835026</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.12627767485881</v>
+        <v>11.12627767485888</v>
       </c>
       <c r="E3">
-        <v>31.96604927000296</v>
+        <v>31.96604927000293</v>
       </c>
       <c r="F3">
-        <v>71.73084804673347</v>
+        <v>71.73084804673331</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.20159743554729</v>
+        <v>10.20159743554745</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>69.52864519690239</v>
+        <v>69.52864519690227</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.462652818980488</v>
+        <v>7.462652818980538</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.28040606035068</v>
+        <v>10.28040606035069</v>
       </c>
       <c r="E4">
-        <v>29.76480401984215</v>
+        <v>29.76480401984208</v>
       </c>
       <c r="F4">
-        <v>66.73287626823038</v>
+        <v>66.73287626823019</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10.71164549523719</v>
+        <v>10.71164549523712</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>65.29388363210933</v>
+        <v>65.2938836321092</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.33181886536073</v>
+        <v>7.331818865360836</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.946042405129454</v>
+        <v>9.946042405129377</v>
       </c>
       <c r="E5">
-        <v>28.88891249018112</v>
+        <v>28.88891249018097</v>
       </c>
       <c r="F5">
-        <v>64.74594580927561</v>
+        <v>64.74594580927521</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.91445020931354</v>
+        <v>10.91445020931348</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>63.5803323223686</v>
+        <v>63.58033232236839</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.309825242405134</v>
+        <v>7.309825242405149</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.890982084026433</v>
+        <v>9.89098208402639</v>
       </c>
       <c r="E6">
-        <v>28.74433337766095</v>
+        <v>28.74433337766101</v>
       </c>
       <c r="F6">
-        <v>64.41818943741423</v>
+        <v>64.41818943741444</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10.94790013365205</v>
+        <v>10.94790013365195</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>63.29597240726987</v>
+        <v>63.29597240726999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.460906477280989</v>
+        <v>7.460906477280976</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.27586264690673</v>
+        <v>10.27586264690678</v>
       </c>
       <c r="E7">
-        <v>29.75292558457988</v>
+        <v>29.75292558457977</v>
       </c>
       <c r="F7">
-        <v>66.70591795852502</v>
+        <v>66.70591795852505</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>65.27075147439491</v>
+        <v>65.27075147439496</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.086979253122264</v>
+        <v>8.086979253122351</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>12.08555516791234</v>
+        <v>12.08555516791226</v>
       </c>
       <c r="E8">
-        <v>34.4415880234789</v>
+        <v>34.44158802347894</v>
       </c>
       <c r="F8">
-        <v>77.34331397576688</v>
+        <v>77.34331397576697</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.629778357919818</v>
+        <v>9.629778357919712</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>74.1617020526742</v>
+        <v>74.16170205267422</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E9">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F9">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E10">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F10">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E11">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F11">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E12">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F12">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E13">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F13">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E14">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F14">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E15">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F15">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E16">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F16">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E17">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F17">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E18">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F18">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E19">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F19">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E20">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F20">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E21">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F21">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E22">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F22">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E23">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F23">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E24">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F24">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.26735011683571</v>
+        <v>9.267350116835718</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.66014407543341</v>
+        <v>17.66014407543319</v>
       </c>
       <c r="E25">
-        <v>48.8097249123439</v>
+        <v>48.8097249123437</v>
       </c>
       <c r="F25">
-        <v>108.4045521097135</v>
+        <v>108.404552109713</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.503536057517355</v>
+        <v>6.503536057517509</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>97.72362463627195</v>
+        <v>97.72362463627167</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
@@ -418,25 +418,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>12.62399045845425</v>
+        <v>12.62399045845414</v>
       </c>
       <c r="E2">
-        <v>35.82378569588133</v>
+        <v>35.82378569588152</v>
       </c>
       <c r="F2">
-        <v>80.46489691719316</v>
+        <v>80.46489691719354</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.31252177747348</v>
+        <v>9.31252177747349</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>76.68518355841437</v>
+        <v>76.68518355841469</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.772557788835026</v>
+        <v>7.77255778883505</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.12627767485888</v>
+        <v>11.12627767485881</v>
       </c>
       <c r="E3">
-        <v>31.96604927000293</v>
+        <v>31.96604927000296</v>
       </c>
       <c r="F3">
-        <v>71.73084804673331</v>
+        <v>71.73084804673347</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.20159743554745</v>
+        <v>10.20159743554729</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>69.52864519690227</v>
+        <v>69.52864519690239</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.462652818980538</v>
+        <v>7.462652818980488</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.28040606035069</v>
+        <v>10.28040606035068</v>
       </c>
       <c r="E4">
-        <v>29.76480401984208</v>
+        <v>29.76480401984215</v>
       </c>
       <c r="F4">
-        <v>66.73287626823019</v>
+        <v>66.73287626823038</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10.71164549523712</v>
+        <v>10.71164549523719</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>65.2938836321092</v>
+        <v>65.29388363210933</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.331818865360836</v>
+        <v>7.33181886536073</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.946042405129377</v>
+        <v>9.946042405129454</v>
       </c>
       <c r="E5">
-        <v>28.88891249018097</v>
+        <v>28.88891249018112</v>
       </c>
       <c r="F5">
-        <v>64.74594580927521</v>
+        <v>64.74594580927561</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10.91445020931348</v>
+        <v>10.91445020931354</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>63.58033232236839</v>
+        <v>63.5803323223686</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.309825242405149</v>
+        <v>7.309825242405134</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.89098208402639</v>
+        <v>9.890982084026433</v>
       </c>
       <c r="E6">
-        <v>28.74433337766101</v>
+        <v>28.74433337766095</v>
       </c>
       <c r="F6">
-        <v>64.41818943741444</v>
+        <v>64.41818943741423</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10.94790013365195</v>
+        <v>10.94790013365205</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>63.29597240726999</v>
+        <v>63.29597240726987</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.460906477280976</v>
+        <v>7.460906477280989</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.27586264690678</v>
+        <v>10.27586264690673</v>
       </c>
       <c r="E7">
-        <v>29.75292558457977</v>
+        <v>29.75292558457988</v>
       </c>
       <c r="F7">
-        <v>66.70591795852505</v>
+        <v>66.70591795852502</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>65.27075147439496</v>
+        <v>65.27075147439491</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.086979253122351</v>
+        <v>8.086979253122264</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>12.08555516791226</v>
+        <v>12.08555516791234</v>
       </c>
       <c r="E8">
-        <v>34.44158802347894</v>
+        <v>34.4415880234789</v>
       </c>
       <c r="F8">
-        <v>77.34331397576697</v>
+        <v>77.34331397576688</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.629778357919712</v>
+        <v>9.629778357919818</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>74.16170205267422</v>
+        <v>74.1617020526742</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E9">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F9">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E10">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F10">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E11">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F11">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E12">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F12">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E13">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F13">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E14">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F14">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E15">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F15">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E16">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F16">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E17">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F17">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E18">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F18">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E19">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F19">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E20">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F20">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E21">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F21">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E22">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F22">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E23">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F23">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E24">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F24">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.267350116835718</v>
+        <v>9.26735011683571</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.66014407543319</v>
+        <v>17.66014407543341</v>
       </c>
       <c r="E25">
-        <v>48.8097249123437</v>
+        <v>48.8097249123439</v>
       </c>
       <c r="F25">
-        <v>108.404552109713</v>
+        <v>108.4045521097135</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6.503536057517509</v>
+        <v>6.503536057517355</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>97.72362463627167</v>
+        <v>97.72362463627195</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.245999862587947</v>
+        <v>8.251748577365454</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>12.62399045845414</v>
+        <v>12.40237602048271</v>
       </c>
       <c r="E2">
-        <v>35.82378569588152</v>
+        <v>35.52524235498551</v>
       </c>
       <c r="F2">
-        <v>80.46489691719354</v>
+        <v>79.57789883862419</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.776705824684003</v>
       </c>
       <c r="H2">
-        <v>9.31252177747349</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.454147904961868</v>
       </c>
       <c r="J2">
-        <v>76.68518355841469</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>76.01240971064291</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.77255778883505</v>
+        <v>7.778081872635473</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>11.12627767485881</v>
+        <v>10.93872591867892</v>
       </c>
       <c r="E3">
-        <v>31.96604927000296</v>
+        <v>31.73736246779112</v>
       </c>
       <c r="F3">
-        <v>71.73084804673347</v>
+        <v>71.03338689763208</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.833539127085339</v>
       </c>
       <c r="H3">
-        <v>10.20159743554729</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10.33359207258269</v>
       </c>
       <c r="J3">
-        <v>69.52864519690239</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>68.95866846759382</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.462652818980488</v>
+        <v>7.468345965904064</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.28040606035068</v>
+        <v>10.10961063736265</v>
       </c>
       <c r="E4">
-        <v>29.76480401984215</v>
+        <v>29.56655778582799</v>
       </c>
       <c r="F4">
-        <v>66.73287626823038</v>
+        <v>66.13135640225372</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.864992069945101</v>
       </c>
       <c r="H4">
-        <v>10.71164549523719</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>10.84000539933216</v>
       </c>
       <c r="J4">
-        <v>65.29388363210933</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>64.77086688529663</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.33181886536073</v>
+        <v>7.337634024907361</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.946042405129454</v>
+        <v>9.781599707466738</v>
       </c>
       <c r="E5">
-        <v>28.88891249018112</v>
+        <v>28.7014107901675</v>
       </c>
       <c r="F5">
-        <v>64.74594580927561</v>
+        <v>64.18132618034824</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.877278281214034</v>
       </c>
       <c r="H5">
-        <v>10.91445020931354</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.04163799100868</v>
       </c>
       <c r="J5">
-        <v>63.5803323223686</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>63.07428606711347</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.309825242405134</v>
+        <v>7.315663478079587</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.890982084026433</v>
+        <v>9.727575419387687</v>
       </c>
       <c r="E6">
-        <v>28.74433337766095</v>
+        <v>28.5585402450508</v>
       </c>
       <c r="F6">
-        <v>64.41818943741423</v>
+        <v>63.85961598210308</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.879293092965618</v>
       </c>
       <c r="H6">
-        <v>10.94790013365205</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.0749075445916</v>
       </c>
       <c r="J6">
-        <v>63.29597240726987</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>62.7926455742921</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.460906477280989</v>
+        <v>7.466601073756235</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.27586264690673</v>
+        <v>10.10515434775606</v>
       </c>
       <c r="E7">
-        <v>29.75292558457988</v>
+        <v>29.55482977954874</v>
       </c>
       <c r="F7">
-        <v>66.70591795852502</v>
+        <v>66.10490215249253</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.865159595190072</v>
       </c>
       <c r="H7">
-        <v>10.71439725893834</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10.84274031775728</v>
       </c>
       <c r="J7">
-        <v>65.27075147439491</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>64.74797080471984</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.086979253122264</v>
+        <v>8.092564319757962</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>12.08555516791234</v>
+        <v>11.87706675020854</v>
       </c>
       <c r="E8">
-        <v>34.4415880234789</v>
+        <v>34.17107401413737</v>
       </c>
       <c r="F8">
-        <v>77.34331397576688</v>
+        <v>76.52856872432004</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.797287708407397</v>
       </c>
       <c r="H8">
-        <v>9.629778357919818</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.767365780013295</v>
       </c>
       <c r="J8">
-        <v>74.1617020526742</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>73.52946338519276</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E9">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F9">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H9">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J9">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E10">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F10">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H10">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J10">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E11">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F11">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H11">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J11">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E12">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F12">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H12">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J12">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E13">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F13">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H13">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J13">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E14">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F14">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H14">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J14">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E15">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F15">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H15">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J15">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E16">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F16">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H16">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J16">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E17">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F17">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H17">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J17">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E18">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F18">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H18">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J18">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E19">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F19">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H19">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J19">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E20">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F20">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H20">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J20">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E21">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F21">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H21">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J21">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E22">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F22">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H22">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J22">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E23">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F23">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H23">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J23">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E24">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F24">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H24">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J24">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.26735011683571</v>
+        <v>9.252074982962725</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.66014407543341</v>
+        <v>17.10999086182274</v>
       </c>
       <c r="E25">
-        <v>48.8097249123439</v>
+        <v>47.65255884800438</v>
       </c>
       <c r="F25">
-        <v>108.4045521097135</v>
+        <v>105.8270192476193</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.58457094375562</v>
       </c>
       <c r="H25">
-        <v>6.503536057517355</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>6.794378180974174</v>
       </c>
       <c r="J25">
-        <v>97.72362463627195</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>95.96049515514966</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.251748577365454</v>
+        <v>7.278898413203977</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>12.40237602048271</v>
+        <v>9.033790644832649</v>
       </c>
       <c r="E2">
-        <v>35.52524235498551</v>
+        <v>6.187071066337594</v>
       </c>
       <c r="F2">
-        <v>79.57789883862419</v>
+        <v>64.94297416185663</v>
       </c>
       <c r="G2">
-        <v>1.776705824684003</v>
+        <v>1.936546116279278</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.454147904961868</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>76.01240971064291</v>
+        <v>46.08899899377851</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>30.95703986111625</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.778081872635473</v>
+        <v>6.909004834547494</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.93872591867892</v>
+        <v>8.412012321886442</v>
       </c>
       <c r="E3">
-        <v>31.73736246779112</v>
+        <v>6.153695499431318</v>
       </c>
       <c r="F3">
-        <v>71.03338689763208</v>
+        <v>59.6960673974317</v>
       </c>
       <c r="G3">
-        <v>1.833539127085339</v>
+        <v>1.965181805951779</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.33359207258269</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>68.95866846759382</v>
+        <v>42.49254072796206</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>28.54173740473716</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.468345965904064</v>
+        <v>6.677367253581154</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.10961063736265</v>
+        <v>8.041828812916442</v>
       </c>
       <c r="E4">
-        <v>29.56655778582799</v>
+        <v>6.139140758918269</v>
       </c>
       <c r="F4">
-        <v>66.13135640225372</v>
+        <v>56.52261563855361</v>
       </c>
       <c r="G4">
-        <v>1.864992069945101</v>
+        <v>1.982494744311266</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.84000539933216</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>64.77086688529663</v>
+        <v>40.22477863115046</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>27.01994185274926</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.337634024907361</v>
+        <v>6.581907098020013</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.781599707466738</v>
+        <v>7.893375844894639</v>
       </c>
       <c r="E5">
-        <v>28.7014107901675</v>
+        <v>6.134404814142182</v>
       </c>
       <c r="F5">
-        <v>64.18132618034824</v>
+        <v>55.26329929716744</v>
       </c>
       <c r="G5">
-        <v>1.877278281214034</v>
+        <v>1.989517425340166</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.04163799100868</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>63.07428606711347</v>
+        <v>39.28324309726177</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>26.38842504642306</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.315663478079587</v>
+        <v>6.565994305236042</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.727575419387687</v>
+        <v>7.868858413642078</v>
       </c>
       <c r="E6">
-        <v>28.5585402450508</v>
+        <v>6.133683313510552</v>
       </c>
       <c r="F6">
-        <v>63.85961598210308</v>
+        <v>55.05390875637235</v>
       </c>
       <c r="G6">
-        <v>1.879293092965618</v>
+        <v>1.990682466089353</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.0749075445916</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>62.7926455742921</v>
+        <v>39.12578872805641</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>26.28283409568061</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.466601073756235</v>
+        <v>6.676084043996012</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.10515434775606</v>
+        <v>8.039817564385427</v>
       </c>
       <c r="E7">
-        <v>29.55482977954874</v>
+        <v>6.139072387156149</v>
       </c>
       <c r="F7">
-        <v>66.10490215249253</v>
+        <v>56.50564943281514</v>
       </c>
       <c r="G7">
-        <v>1.865159595190072</v>
+        <v>1.982589544973053</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.84274031775728</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>64.74797080471984</v>
+        <v>40.21215408137357</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>27.01147294470399</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.092564319757962</v>
+        <v>7.152330020198392</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>11.87706675020854</v>
+        <v>8.816626465469755</v>
       </c>
       <c r="E8">
-        <v>34.17107401413737</v>
+        <v>6.174124283154194</v>
       </c>
       <c r="F8">
-        <v>76.52856872432004</v>
+        <v>63.1350109060613</v>
       </c>
       <c r="G8">
-        <v>1.797287708407397</v>
+        <v>1.946499513450796</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.767365780013295</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>73.52946338519276</v>
+        <v>44.85965147762805</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>30.13120411737154</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.252074982962725</v>
+        <v>8.049148104398222</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.10999086182274</v>
+        <v>10.54469649791008</v>
       </c>
       <c r="E9">
-        <v>47.65255884800438</v>
+        <v>6.309567298454994</v>
       </c>
       <c r="F9">
-        <v>105.8270192476193</v>
+        <v>76.3695057916546</v>
       </c>
       <c r="G9">
-        <v>1.58457094375562</v>
+        <v>1.871412728141238</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>95.96049515514966</v>
+        <v>53.64999032667765</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>36.03985127907698</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.252074982962725</v>
+        <v>8.781113123111512</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.10999086182274</v>
+        <v>12.09704712608155</v>
       </c>
       <c r="E10">
-        <v>47.65255884800438</v>
+        <v>6.494973053690066</v>
       </c>
       <c r="F10">
-        <v>105.8270192476193</v>
+        <v>86.70924036825711</v>
       </c>
       <c r="G10">
-        <v>1.58457094375562</v>
+        <v>1.808959333787178</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>95.96049515514966</v>
+        <v>60.22749493113439</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>40.46201650333361</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.252074982962725</v>
+        <v>9.127149807072449</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.10999086182274</v>
+        <v>12.86841185392532</v>
       </c>
       <c r="E11">
-        <v>47.65255884800438</v>
+        <v>6.618731402260314</v>
       </c>
       <c r="F11">
-        <v>105.8270192476193</v>
+        <v>91.78723795826451</v>
       </c>
       <c r="G11">
-        <v>1.58457094375562</v>
+        <v>1.777000000643262</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>95.96049515514966</v>
+        <v>63.37861511974149</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>42.57838649942927</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.252074982962725</v>
+        <v>9.257308953991304</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.10999086182274</v>
+        <v>13.17642679896364</v>
       </c>
       <c r="E12">
-        <v>47.65255884800438</v>
+        <v>6.674800959024135</v>
       </c>
       <c r="F12">
-        <v>105.8270192476193</v>
+        <v>93.80284887274149</v>
       </c>
       <c r="G12">
-        <v>1.58457094375562</v>
+        <v>1.764072151874724</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>95.96049515514966</v>
+        <v>64.6160456475853</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>43.40872023141148</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.252074982962725</v>
+        <v>9.229303507172878</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.10999086182274</v>
+        <v>13.10922410529244</v>
       </c>
       <c r="E13">
-        <v>47.65255884800438</v>
+        <v>6.662228030298036</v>
       </c>
       <c r="F13">
-        <v>105.8270192476193</v>
+        <v>93.36369000568209</v>
       </c>
       <c r="G13">
-        <v>1.58457094375562</v>
+        <v>1.766900717536972</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>95.96049515514966</v>
+        <v>64.34706381663037</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>43.22827389958883</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.252074982962725</v>
+        <v>9.13787136570944</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.10999086182274</v>
+        <v>12.89337865548818</v>
       </c>
       <c r="E14">
-        <v>47.65255884800438</v>
+        <v>6.623129430428738</v>
       </c>
       <c r="F14">
-        <v>105.8270192476193</v>
+        <v>91.95088092590403</v>
       </c>
       <c r="G14">
-        <v>1.58457094375562</v>
+        <v>1.775955597254933</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>95.96049515514966</v>
+        <v>63.47935590622173</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>42.64600371618678</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.252074982962725</v>
+        <v>9.081773819840846</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.10999086182274</v>
+        <v>12.76351354478762</v>
       </c>
       <c r="E15">
-        <v>47.65255884800438</v>
+        <v>6.600530496456611</v>
       </c>
       <c r="F15">
-        <v>105.8270192476193</v>
+        <v>91.09918875892072</v>
       </c>
       <c r="G15">
-        <v>1.58457094375562</v>
+        <v>1.781381303588854</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>95.96049515514966</v>
+        <v>62.95450202649578</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>42.29368834935524</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.252074982962725</v>
+        <v>8.758340152646667</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.10999086182274</v>
+        <v>12.04841295585072</v>
       </c>
       <c r="E16">
-        <v>47.65255884800438</v>
+        <v>6.487925758059341</v>
       </c>
       <c r="F16">
-        <v>105.8270192476193</v>
+        <v>86.38767505348002</v>
       </c>
       <c r="G16">
-        <v>1.58457094375562</v>
+        <v>1.810954117199582</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>95.96049515514966</v>
+        <v>60.02627604894371</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>40.32680068921263</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.252074982962725</v>
+        <v>8.557703975249975</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.10999086182274</v>
+        <v>11.62987536548634</v>
       </c>
       <c r="E17">
-        <v>47.65255884800438</v>
+        <v>6.430766033977241</v>
       </c>
       <c r="F17">
-        <v>105.8270192476193</v>
+        <v>83.6137466576151</v>
       </c>
       <c r="G17">
-        <v>1.58457094375562</v>
+        <v>1.828020098614191</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>95.96049515514966</v>
+        <v>58.28190790188293</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>39.15435636378752</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.252074982962725</v>
+        <v>8.441336907290236</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.10999086182274</v>
+        <v>11.39473932295556</v>
       </c>
       <c r="E18">
-        <v>47.65255884800438</v>
+        <v>6.401303298496777</v>
       </c>
       <c r="F18">
-        <v>105.8270192476193</v>
+        <v>82.05028611799619</v>
       </c>
       <c r="G18">
-        <v>1.58457094375562</v>
+        <v>1.837527946657146</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>95.96049515514966</v>
+        <v>57.29180057743022</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>38.48871233078366</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.252074982962725</v>
+        <v>8.401759281582825</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.10999086182274</v>
+        <v>11.31595033989129</v>
       </c>
       <c r="E19">
-        <v>47.65255884800438</v>
+        <v>6.391842296106379</v>
       </c>
       <c r="F19">
-        <v>105.8270192476193</v>
+        <v>81.5256118175006</v>
       </c>
       <c r="G19">
-        <v>1.58457094375562</v>
+        <v>1.840700859338769</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>95.96049515514966</v>
+        <v>56.95838782573611</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>38.26454119158028</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.252074982962725</v>
+        <v>8.579159137106302</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.10999086182274</v>
+        <v>11.67381589856071</v>
       </c>
       <c r="E20">
-        <v>47.65255884800438</v>
+        <v>6.436479358585319</v>
       </c>
       <c r="F20">
-        <v>105.8270192476193</v>
+        <v>83.90551679442792</v>
       </c>
       <c r="G20">
-        <v>1.58457094375562</v>
+        <v>1.826236939514881</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>95.96049515514966</v>
+        <v>58.46611972954131</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>39.27818985848728</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.252074982962725</v>
+        <v>9.164745032982461</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.10999086182274</v>
+        <v>12.95626946977936</v>
       </c>
       <c r="E21">
-        <v>47.65255884800438</v>
+        <v>6.634321546697146</v>
       </c>
       <c r="F21">
-        <v>105.8270192476193</v>
+        <v>92.36288934657539</v>
       </c>
       <c r="G21">
-        <v>1.58457094375562</v>
+        <v>1.773322030218687</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>95.96049515514966</v>
+        <v>63.73277603174409</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>42.81608528547182</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.252074982962725</v>
+        <v>9.542922621111627</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.10999086182274</v>
+        <v>13.89488578987332</v>
       </c>
       <c r="E22">
-        <v>47.65255884800438</v>
+        <v>6.821660999643349</v>
       </c>
       <c r="F22">
-        <v>105.8270192476193</v>
+        <v>98.47602601138652</v>
       </c>
       <c r="G22">
-        <v>1.58457094375562</v>
+        <v>1.733558689805062</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>95.96049515514966</v>
+        <v>67.4572519422084</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>45.31292132792586</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.252074982962725</v>
+        <v>9.341209315764374</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.10999086182274</v>
+        <v>13.38100476020438</v>
       </c>
       <c r="E23">
-        <v>47.65255884800438</v>
+        <v>6.714271219121962</v>
       </c>
       <c r="F23">
-        <v>105.8270192476193</v>
+        <v>95.13761506722498</v>
       </c>
       <c r="G23">
-        <v>1.58457094375562</v>
+        <v>1.755434291941447</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>95.96049515514966</v>
+        <v>65.4314626696665</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>43.95557652654458</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.252074982962725</v>
+        <v>8.569462465990883</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.10999086182274</v>
+        <v>11.65393370850236</v>
       </c>
       <c r="E24">
-        <v>47.65255884800438</v>
+        <v>6.433885997735532</v>
       </c>
       <c r="F24">
-        <v>105.8270192476193</v>
+        <v>83.77351246560755</v>
       </c>
       <c r="G24">
-        <v>1.58457094375562</v>
+        <v>1.827044031392839</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>95.96049515514966</v>
+        <v>58.38279919271498</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>39.22217942283203</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.252074982962725</v>
+        <v>7.810508580144834</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.10999086182274</v>
+        <v>10.00412454064982</v>
       </c>
       <c r="E25">
-        <v>47.65255884800438</v>
+        <v>6.262338342025877</v>
       </c>
       <c r="F25">
-        <v>105.8270192476193</v>
+        <v>72.73506968723757</v>
       </c>
       <c r="G25">
-        <v>1.58457094375562</v>
+        <v>1.892558430571978</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>6.794378180974174</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>95.96049515514966</v>
+        <v>51.28131194049966</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>34.44707616942799</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.278898413203977</v>
+        <v>7.255729905248812</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.033790644832649</v>
+        <v>4.052400354135241</v>
       </c>
       <c r="E2">
-        <v>6.187071066337594</v>
+        <v>29.83087147653298</v>
       </c>
       <c r="F2">
-        <v>64.94297416185663</v>
+        <v>18.01615393758907</v>
       </c>
       <c r="G2">
-        <v>1.936546116279278</v>
+        <v>2.059998047446036</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>46.08899899377851</v>
+        <v>19.53270574809952</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.95703986111625</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.8216560186451</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.909004834547494</v>
+        <v>6.896877788940261</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.412012321886442</v>
+        <v>3.939457023635816</v>
       </c>
       <c r="E3">
-        <v>6.153695499431318</v>
+        <v>27.65525296231878</v>
       </c>
       <c r="F3">
-        <v>59.6960673974317</v>
+        <v>17.43861022315258</v>
       </c>
       <c r="G3">
-        <v>1.965181805951779</v>
+        <v>2.066371979178738</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>42.49254072796206</v>
+        <v>18.40354715769931</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>28.54173740473716</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.6379292122499</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.677367253581154</v>
+        <v>6.670374637197578</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.041828812916442</v>
+        <v>3.868298705187075</v>
       </c>
       <c r="E4">
-        <v>6.139140758918269</v>
+        <v>26.25695073960294</v>
       </c>
       <c r="F4">
-        <v>56.52261563855361</v>
+        <v>17.10257706764318</v>
       </c>
       <c r="G4">
-        <v>1.982494744311266</v>
+        <v>2.070382922094648</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>40.22477863115046</v>
+        <v>17.67564430386534</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>27.01994185274926</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>13.54669678310892</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.581907098020013</v>
+        <v>6.576648042896736</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.893375844894639</v>
+        <v>3.838873212837755</v>
       </c>
       <c r="E5">
-        <v>6.134404814142182</v>
+        <v>25.67107501558278</v>
       </c>
       <c r="F5">
-        <v>55.26329929716744</v>
+        <v>16.97038116468977</v>
       </c>
       <c r="G5">
-        <v>1.989517425340166</v>
+        <v>2.072043062281924</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>39.28324309726177</v>
+        <v>17.37039675726705</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>26.38842504642306</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>13.51472408045523</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.565994305236042</v>
+        <v>6.561002848666661</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.868858413642078</v>
+        <v>3.833962139713277</v>
       </c>
       <c r="E6">
-        <v>6.133683313510552</v>
+        <v>25.57281126051312</v>
       </c>
       <c r="F6">
-        <v>55.05390875637235</v>
+        <v>16.94871813753196</v>
       </c>
       <c r="G6">
-        <v>1.990682466089353</v>
+        <v>2.072320309276441</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>39.12578872805641</v>
+        <v>17.3191928781805</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.28283409568061</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>13.50972263845988</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.676084043996012</v>
+        <v>6.669116194687169</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.039817564385427</v>
+        <v>3.867903557150302</v>
       </c>
       <c r="E7">
-        <v>6.139072387156149</v>
+        <v>26.24911487142224</v>
       </c>
       <c r="F7">
-        <v>56.50564943281514</v>
+        <v>17.10077495458161</v>
       </c>
       <c r="G7">
-        <v>1.982589544973053</v>
+        <v>2.070405205978537</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>40.21215408137357</v>
+        <v>17.67156240819294</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>27.01147294470399</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>13.54624481625776</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.152330020198392</v>
+        <v>7.133346805038483</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.816626465469755</v>
+        <v>4.013848922829779</v>
       </c>
       <c r="E8">
-        <v>6.174124283154194</v>
+        <v>29.09346476726897</v>
       </c>
       <c r="F8">
-        <v>63.1350109060613</v>
+        <v>17.81320466276706</v>
       </c>
       <c r="G8">
-        <v>1.946499513450796</v>
+        <v>2.062176313718439</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>44.85965147762805</v>
+        <v>19.150588626147</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>30.13120411737154</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.75370186756733</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.049148104398222</v>
+        <v>7.990251792454059</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.54469649791008</v>
+        <v>4.284613934805604</v>
       </c>
       <c r="E9">
-        <v>6.309567298454994</v>
+        <v>34.19272411279002</v>
       </c>
       <c r="F9">
-        <v>76.3695057916546</v>
+        <v>19.35441630347836</v>
       </c>
       <c r="G9">
-        <v>1.871412728141238</v>
+        <v>2.046753877205294</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>53.64999032667765</v>
+        <v>21.77466924925411</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>36.03985127907698</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.34061324763895</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.781113123111512</v>
+        <v>8.629479301791939</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>12.09704712608155</v>
+        <v>4.472903437883051</v>
       </c>
       <c r="E10">
-        <v>6.494973053690066</v>
+        <v>37.67369990975059</v>
       </c>
       <c r="F10">
-        <v>86.70924036825711</v>
+        <v>20.57061461668221</v>
       </c>
       <c r="G10">
-        <v>1.808959333787178</v>
+        <v>2.035769903613578</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>60.22749493113439</v>
+        <v>23.53376917904849</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>40.46201650333361</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.8924763670817</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.127149807072449</v>
+        <v>8.942185250129093</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.86841185392532</v>
+        <v>4.556044259677233</v>
       </c>
       <c r="E11">
-        <v>6.618731402260314</v>
+        <v>39.2062758919335</v>
       </c>
       <c r="F11">
-        <v>91.78723795826451</v>
+        <v>21.14156954286785</v>
       </c>
       <c r="G11">
-        <v>1.777000000643262</v>
+        <v>2.030826136967575</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>63.37861511974149</v>
+        <v>24.29778584377207</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>42.57838649942927</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.17175691550817</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.257308953991304</v>
+        <v>9.05822667137488</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13.17642679896364</v>
+        <v>4.587152382575006</v>
       </c>
       <c r="E12">
-        <v>6.674800959024135</v>
+        <v>39.77992672516802</v>
       </c>
       <c r="F12">
-        <v>93.80284887274149</v>
+        <v>21.36030978117555</v>
       </c>
       <c r="G12">
-        <v>1.764072151874724</v>
+        <v>2.028959589517994</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>64.6160456475853</v>
+        <v>24.5819526159901</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>43.40872023141148</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.28172642347987</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.229303507172878</v>
+        <v>9.033340052205025</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>13.10922410529244</v>
+        <v>4.580469589783568</v>
       </c>
       <c r="E13">
-        <v>6.662228030298036</v>
+        <v>39.65666808724006</v>
       </c>
       <c r="F13">
-        <v>93.36369000568209</v>
+        <v>21.31308736728396</v>
       </c>
       <c r="G13">
-        <v>1.766900717536972</v>
+        <v>2.029361372392283</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>64.34706381663037</v>
+        <v>24.52098013640773</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>43.22827389958883</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.2578527913712</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.13787136570944</v>
+        <v>8.95177940645854</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.89337865548818</v>
+        <v>4.558611141044896</v>
       </c>
       <c r="E14">
-        <v>6.623129430428738</v>
+        <v>39.25360097204816</v>
       </c>
       <c r="F14">
-        <v>91.95088092590403</v>
+        <v>21.15951463587938</v>
       </c>
       <c r="G14">
-        <v>1.775955597254933</v>
+        <v>2.030672476389844</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>63.47935590622173</v>
+        <v>24.32126722750557</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>42.64600371618678</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.18071889511834</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.081773819840846</v>
+        <v>8.901513139293145</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.76351354478762</v>
+        <v>4.545172933331584</v>
       </c>
       <c r="E15">
-        <v>6.600530496456611</v>
+        <v>39.00585767892542</v>
       </c>
       <c r="F15">
-        <v>91.09918875892072</v>
+        <v>21.06577686419699</v>
       </c>
       <c r="G15">
-        <v>1.781381303588854</v>
+        <v>2.031476223101383</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>62.95450202649578</v>
+        <v>24.1982686806745</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>42.29368834935524</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.13402515405086</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.758340152646667</v>
+        <v>8.608709110669228</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>12.04841295585072</v>
+        <v>4.467418154018714</v>
       </c>
       <c r="E16">
-        <v>6.487925758059341</v>
+        <v>37.57256893031496</v>
       </c>
       <c r="F16">
-        <v>86.38767505348002</v>
+        <v>20.53365561308322</v>
       </c>
       <c r="G16">
-        <v>1.810954117199582</v>
+        <v>2.036093884252695</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>60.02627604894371</v>
+        <v>23.48311471108823</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>40.32680068921263</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.87480594341156</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.557703975249975</v>
+        <v>8.424817088269796</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.62987536548634</v>
+        <v>4.419063592321835</v>
       </c>
       <c r="E17">
-        <v>6.430766033977241</v>
+        <v>36.68066557275703</v>
       </c>
       <c r="F17">
-        <v>83.6137466576151</v>
+        <v>20.21172970526359</v>
       </c>
       <c r="G17">
-        <v>1.828020098614191</v>
+        <v>2.038938826202132</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>58.28190790188293</v>
+        <v>23.03515147660391</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>39.15435636378752</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.72312435811265</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.441336907290236</v>
+        <v>8.3252625563654</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.39473932295556</v>
+        <v>4.39101546955574</v>
       </c>
       <c r="E18">
-        <v>6.401303298496777</v>
+        <v>36.16283043557149</v>
       </c>
       <c r="F18">
-        <v>82.05028611799619</v>
+        <v>20.02823136785579</v>
       </c>
       <c r="G18">
-        <v>1.837527946657146</v>
+        <v>2.040580276561968</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>57.29180057743022</v>
+        <v>22.77408224547491</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>38.48871233078366</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.63853013748435</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.401759281582825</v>
+        <v>8.295274348522652</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.31595033989129</v>
+        <v>4.381478821413688</v>
       </c>
       <c r="E19">
-        <v>6.391842296106379</v>
+        <v>35.98665204987576</v>
       </c>
       <c r="F19">
-        <v>81.5256118175006</v>
+        <v>19.9663889034055</v>
       </c>
       <c r="G19">
-        <v>1.840700859338769</v>
+        <v>2.041136980915163</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>56.95838782573611</v>
+        <v>22.68510116828653</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>38.26454119158028</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.61033827224902</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.579159137106302</v>
+        <v>8.444555895048792</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.67381589856071</v>
+        <v>4.424235538941879</v>
       </c>
       <c r="E20">
-        <v>6.436479358585319</v>
+        <v>36.7761064424389</v>
       </c>
       <c r="F20">
-        <v>83.90551679442792</v>
+        <v>20.24582716177807</v>
       </c>
       <c r="G20">
-        <v>1.826236939514881</v>
+        <v>2.038635462057247</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>58.46611972954131</v>
+        <v>23.08319077429695</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>39.27818985848728</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.73899584953332</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.164745032982461</v>
+        <v>8.975799869433153</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.95626946977936</v>
+        <v>4.565041788115268</v>
       </c>
       <c r="E21">
-        <v>6.634321546697146</v>
+        <v>39.37216810439199</v>
       </c>
       <c r="F21">
-        <v>92.36288934657539</v>
+        <v>21.20455387786723</v>
       </c>
       <c r="G21">
-        <v>1.773322030218687</v>
+        <v>2.030287240320474</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>63.73277603174409</v>
+        <v>24.38006696102356</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>42.81608528547182</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.20325947672838</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.542922621111627</v>
+        <v>9.309181577686044</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.89488578987332</v>
+        <v>4.654873364824631</v>
       </c>
       <c r="E22">
-        <v>6.821660999643349</v>
+        <v>41.03012604830683</v>
       </c>
       <c r="F22">
-        <v>98.47602601138652</v>
+        <v>21.84591691218816</v>
       </c>
       <c r="G22">
-        <v>1.733558689805062</v>
+        <v>2.024862409899141</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>67.4572519422084</v>
+        <v>25.19767437587529</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>45.31292132792586</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.53130415588734</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.341209315764374</v>
+        <v>9.132501491466595</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>13.38100476020438</v>
+        <v>4.607133263624346</v>
       </c>
       <c r="E23">
-        <v>6.714271219121962</v>
+        <v>40.14855849563985</v>
       </c>
       <c r="F23">
-        <v>95.13761506722498</v>
+        <v>21.5022516514086</v>
       </c>
       <c r="G23">
-        <v>1.755434291941447</v>
+        <v>2.027755631263357</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>65.4314626696665</v>
+        <v>24.764020769994</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>43.95557652654458</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.35391764521268</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.569462465990883</v>
+        <v>8.435637051058457</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.65393370850236</v>
+        <v>4.421898074614456</v>
       </c>
       <c r="E24">
-        <v>6.433885997735532</v>
+        <v>36.73297345692965</v>
       </c>
       <c r="F24">
-        <v>83.77351246560755</v>
+        <v>20.23040677521452</v>
       </c>
       <c r="G24">
-        <v>1.827044031392839</v>
+        <v>2.03877259459713</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>58.38279919271498</v>
+        <v>23.06148320452404</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>39.22217942283203</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.73181223158727</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.810508580144834</v>
+        <v>7.764715352719563</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.00412454064982</v>
+        <v>4.213154685170427</v>
       </c>
       <c r="E25">
-        <v>6.262338342025877</v>
+        <v>32.86191197301637</v>
       </c>
       <c r="F25">
-        <v>72.73506968723757</v>
+        <v>18.92249329763295</v>
       </c>
       <c r="G25">
-        <v>1.892558430571978</v>
+        <v>2.05085821765244</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>51.28131194049966</v>
+        <v>21.09449719010124</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>34.44707616942799</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.16137179496163</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.255729905248812</v>
+        <v>7.793150398273091</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.052400354135241</v>
+        <v>4.283966637138957</v>
       </c>
       <c r="E2">
-        <v>29.83087147653298</v>
+        <v>16.51581206488088</v>
       </c>
       <c r="F2">
-        <v>18.01615393758907</v>
+        <v>22.12710917420715</v>
       </c>
       <c r="G2">
-        <v>2.059998047446036</v>
+        <v>3.611507248062485</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.53270574809952</v>
+        <v>12.1898689693959</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.8216560186451</v>
+        <v>19.69776709310091</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.896877788940261</v>
+        <v>7.721051978771539</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.939457023635816</v>
+        <v>4.244083202001988</v>
       </c>
       <c r="E3">
-        <v>27.65525296231878</v>
+        <v>15.57734658471344</v>
       </c>
       <c r="F3">
-        <v>17.43861022315258</v>
+        <v>22.13571753165265</v>
       </c>
       <c r="G3">
-        <v>2.066371979178738</v>
+        <v>3.613781892252304</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.40354715769931</v>
+        <v>11.60425677748446</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.6379292122499</v>
+        <v>19.77170363363452</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.670374637197578</v>
+        <v>7.678304469731427</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.868298705187075</v>
+        <v>4.219243919358759</v>
       </c>
       <c r="E4">
-        <v>26.25695073960294</v>
+        <v>14.9762730581507</v>
       </c>
       <c r="F4">
-        <v>17.10257706764318</v>
+        <v>22.14977369286306</v>
       </c>
       <c r="G4">
-        <v>2.070382922094648</v>
+        <v>3.61525029970695</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.67564430386534</v>
+        <v>11.22720370185752</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.54669678310892</v>
+        <v>19.82380725407645</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576648042896736</v>
+        <v>7.661286325873776</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.838873212837755</v>
+        <v>4.209039272153547</v>
       </c>
       <c r="E5">
-        <v>25.67107501558278</v>
+        <v>14.72535078157003</v>
       </c>
       <c r="F5">
-        <v>16.97038116468977</v>
+        <v>22.15769814008227</v>
       </c>
       <c r="G5">
-        <v>2.072043062281924</v>
+        <v>3.615866797302321</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.37039675726705</v>
+        <v>11.06927179968183</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.51472408045523</v>
+        <v>19.84671552071849</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.561002848666661</v>
+        <v>7.658485293552698</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.833962139713277</v>
+        <v>4.2073399882284</v>
       </c>
       <c r="E6">
-        <v>25.57281126051312</v>
+        <v>14.6833330728562</v>
       </c>
       <c r="F6">
-        <v>16.94871813753196</v>
+        <v>22.15914634628169</v>
       </c>
       <c r="G6">
-        <v>2.072320309276441</v>
+        <v>3.61597026189577</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.3191928781805</v>
+        <v>11.04279267223976</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.50972263845988</v>
+        <v>19.85062030282783</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.669116194687169</v>
+        <v>7.678073305230744</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.867903557150302</v>
+        <v>4.219106622097225</v>
       </c>
       <c r="E7">
-        <v>26.24911487142224</v>
+        <v>14.97291285025315</v>
       </c>
       <c r="F7">
-        <v>17.10077495458161</v>
+        <v>22.14987168486793</v>
       </c>
       <c r="G7">
-        <v>2.070405205978537</v>
+        <v>3.615258540600349</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.67156240819294</v>
+        <v>11.22509093559242</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.54624481625776</v>
+        <v>19.82410943301706</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.133346805038483</v>
+        <v>7.767986932106728</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.013848922829779</v>
+        <v>4.270291040836449</v>
       </c>
       <c r="E8">
-        <v>29.09346476726897</v>
+        <v>16.19753306065114</v>
       </c>
       <c r="F8">
-        <v>17.81320466276706</v>
+        <v>22.12825220610344</v>
       </c>
       <c r="G8">
-        <v>2.062176313718439</v>
+        <v>3.612276688394008</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.150588626147</v>
+        <v>11.99164284852786</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.75370186756733</v>
+        <v>19.72186218762237</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.990251792454059</v>
+        <v>7.955496472215369</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.284613934805604</v>
+        <v>4.367633095611584</v>
       </c>
       <c r="E9">
-        <v>34.19272411279002</v>
+        <v>18.4852547266117</v>
       </c>
       <c r="F9">
-        <v>19.35441630347836</v>
+        <v>22.1557523535738</v>
       </c>
       <c r="G9">
-        <v>2.046753877205294</v>
+        <v>3.606995826406704</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.77466924925411</v>
+        <v>13.35194348402415</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.34061324763895</v>
+        <v>19.5750285022731</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.629479301791939</v>
+        <v>8.09886336303733</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.472903437883051</v>
+        <v>4.43697832447477</v>
       </c>
       <c r="E10">
-        <v>37.67369990975059</v>
+        <v>20.13044485292603</v>
       </c>
       <c r="F10">
-        <v>20.57061461668221</v>
+        <v>22.21884081654166</v>
       </c>
       <c r="G10">
-        <v>2.035769903613578</v>
+        <v>3.603457292364574</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>23.53376917904849</v>
+        <v>14.2597995382742</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.8924763670817</v>
+        <v>19.50047257446854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.942185250129093</v>
+        <v>8.165035429096218</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.556044259677233</v>
+        <v>4.467986840393414</v>
       </c>
       <c r="E11">
-        <v>39.2062758919335</v>
+        <v>20.83671822943359</v>
       </c>
       <c r="F11">
-        <v>21.14156954286785</v>
+        <v>22.25686475224322</v>
       </c>
       <c r="G11">
-        <v>2.030826136967575</v>
+        <v>3.601920767349204</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>24.29778584377207</v>
+        <v>14.65225949558596</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.17175691550817</v>
+        <v>19.47390949278351</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.05822667137488</v>
+        <v>8.19020773127626</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.587152382575006</v>
+        <v>4.479646262455695</v>
       </c>
       <c r="E12">
-        <v>39.77992672516802</v>
+        <v>21.09814401971148</v>
       </c>
       <c r="F12">
-        <v>21.36030978117555</v>
+        <v>22.27260148347101</v>
       </c>
       <c r="G12">
-        <v>2.028959589517994</v>
+        <v>3.601349381174448</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.5819526159901</v>
+        <v>14.79788004104889</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.28172642347987</v>
+        <v>19.46491692200775</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.033340052205025</v>
+        <v>8.184781700509596</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.580469589783568</v>
+        <v>4.477138969010663</v>
       </c>
       <c r="E13">
-        <v>39.65666808724006</v>
+        <v>21.04210870690075</v>
       </c>
       <c r="F13">
-        <v>21.31308736728396</v>
+        <v>22.26915286611137</v>
       </c>
       <c r="G13">
-        <v>2.029361372392283</v>
+        <v>3.601471975032119</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.52098013640773</v>
+        <v>14.76665187800998</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.2578527913712</v>
+        <v>19.46680607317651</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.95177940645854</v>
+        <v>8.167104207463264</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.558611141044896</v>
+        <v>4.468947759737177</v>
       </c>
       <c r="E14">
-        <v>39.25360097204816</v>
+        <v>20.85834643527608</v>
       </c>
       <c r="F14">
-        <v>21.15951463587938</v>
+        <v>22.25813263465861</v>
       </c>
       <c r="G14">
-        <v>2.030672476389844</v>
+        <v>3.60187354972077</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>24.32126722750557</v>
+        <v>14.66430003838627</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.18071889511834</v>
+        <v>19.47314824932983</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.901513139293145</v>
+        <v>8.156290452983896</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.545172933331584</v>
+        <v>4.46391945650498</v>
       </c>
       <c r="E15">
-        <v>39.00585767892542</v>
+        <v>20.74500315829879</v>
       </c>
       <c r="F15">
-        <v>21.06577686419699</v>
+        <v>22.2515565291936</v>
       </c>
       <c r="G15">
-        <v>2.031476223101383</v>
+        <v>3.602120886578237</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>24.1982686806745</v>
+        <v>14.60121533445229</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.13402515405086</v>
+        <v>19.47717213365593</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.608709110669228</v>
+        <v>8.094556107310462</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.467418154018714</v>
+        <v>4.43494055658422</v>
       </c>
       <c r="E16">
-        <v>37.57256893031496</v>
+        <v>20.0834433290267</v>
       </c>
       <c r="F16">
-        <v>20.53365561308322</v>
+        <v>22.21654329752543</v>
       </c>
       <c r="G16">
-        <v>2.036093884252695</v>
+        <v>3.603559175197773</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>23.48311471108823</v>
+        <v>14.23373434263626</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.87480594341156</v>
+        <v>19.5023572719758</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.424817088269796</v>
+        <v>8.056912154227996</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.419063592321835</v>
+        <v>4.417021368777747</v>
       </c>
       <c r="E17">
-        <v>36.68066557275703</v>
+        <v>19.66683101266519</v>
       </c>
       <c r="F17">
-        <v>20.21172970526359</v>
+        <v>22.19745070715419</v>
       </c>
       <c r="G17">
-        <v>2.038938826202132</v>
+        <v>3.604460217300669</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.03515147660391</v>
+        <v>14.00300492874529</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.72312435811265</v>
+        <v>19.51969733924661</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.3252625563654</v>
+        <v>8.03535148391078</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.39101546955574</v>
+        <v>4.40666451014402</v>
       </c>
       <c r="E18">
-        <v>36.16283043557149</v>
+        <v>19.42323896469269</v>
       </c>
       <c r="F18">
-        <v>20.02823136785579</v>
+        <v>22.18734716437935</v>
       </c>
       <c r="G18">
-        <v>2.040580276561968</v>
+        <v>3.604985363706231</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.77408224547491</v>
+        <v>13.86836522472677</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.63853013748435</v>
+        <v>19.53036246705981</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.295274348522652</v>
+        <v>8.028067758421994</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.381478821413688</v>
+        <v>4.403149404549535</v>
       </c>
       <c r="E19">
-        <v>35.98665204987576</v>
+        <v>19.34008039606956</v>
       </c>
       <c r="F19">
-        <v>19.9663889034055</v>
+        <v>22.18407713020196</v>
       </c>
       <c r="G19">
-        <v>2.041136980915163</v>
+        <v>3.605164354580164</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.68510116828653</v>
+        <v>13.822448490085</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.61033827224902</v>
+        <v>19.53409199232285</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.444555895048792</v>
+        <v>8.060910150174172</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.424235538941879</v>
+        <v>4.418934135147139</v>
       </c>
       <c r="E20">
-        <v>36.7761064424389</v>
+        <v>19.71159049698633</v>
       </c>
       <c r="F20">
-        <v>20.24582716177807</v>
+        <v>22.19939228933958</v>
       </c>
       <c r="G20">
-        <v>2.038635462057247</v>
+        <v>3.60436358708805</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.08319077429695</v>
+        <v>14.02776658630608</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.73899584953332</v>
+        <v>19.51777981655941</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.975799869433153</v>
+        <v>8.172293592677798</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.565041788115268</v>
+        <v>4.47135600845392</v>
       </c>
       <c r="E21">
-        <v>39.37216810439199</v>
+        <v>20.91248510599658</v>
       </c>
       <c r="F21">
-        <v>21.20455387786723</v>
+        <v>22.26133326914454</v>
       </c>
       <c r="G21">
-        <v>2.030287240320474</v>
+        <v>3.601755314024385</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.38006696102356</v>
+        <v>14.69444485575765</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.20325947672838</v>
+        <v>19.47125639119005</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.309181577686044</v>
+        <v>8.245745297028327</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.654873364824631</v>
+        <v>4.505131437593392</v>
       </c>
       <c r="E22">
-        <v>41.03012604830683</v>
+        <v>21.66223869682883</v>
       </c>
       <c r="F22">
-        <v>21.84591691218816</v>
+        <v>22.30961050689012</v>
       </c>
       <c r="G22">
-        <v>2.024862409899141</v>
+        <v>3.600111612850251</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.19767437587529</v>
+        <v>15.11268320390847</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.53130415588734</v>
+        <v>19.44706952315168</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.132501491466595</v>
+        <v>8.206490199151812</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.607133263624346</v>
+        <v>4.487151076472728</v>
       </c>
       <c r="E23">
-        <v>40.14855849563985</v>
+        <v>21.26528164505243</v>
       </c>
       <c r="F23">
-        <v>21.5022516514086</v>
+        <v>22.28313236243122</v>
       </c>
       <c r="G23">
-        <v>2.027755631263357</v>
+        <v>3.600983329208055</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.764020769994</v>
+        <v>14.89107260654255</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.35391764521268</v>
+        <v>19.45940668062938</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.435637051058457</v>
+        <v>8.059102401115704</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.421898074614456</v>
+        <v>4.418069543944076</v>
       </c>
       <c r="E24">
-        <v>36.73297345692965</v>
+        <v>19.69136743354468</v>
       </c>
       <c r="F24">
-        <v>20.23040677521452</v>
+        <v>22.19851178024275</v>
       </c>
       <c r="G24">
-        <v>2.03877259459713</v>
+        <v>3.604407251406613</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.06148320452404</v>
+        <v>14.01657803696699</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.73181223158727</v>
+        <v>19.51864456083441</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.764715352719563</v>
+        <v>7.903696415035684</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.213154685170427</v>
+        <v>4.341657799802075</v>
       </c>
       <c r="E25">
-        <v>32.86191197301637</v>
+        <v>17.84181157643668</v>
       </c>
       <c r="F25">
-        <v>18.92249329763295</v>
+        <v>22.14079293537749</v>
       </c>
       <c r="G25">
-        <v>2.05085821765244</v>
+        <v>3.608364208569877</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.09449719010124</v>
+        <v>12.99975903782674</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.16137179496163</v>
+        <v>19.60894074031387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.793150398273091</v>
+        <v>7.255729905248814</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.283966637138957</v>
+        <v>4.052400354135175</v>
       </c>
       <c r="E2">
-        <v>16.51581206488088</v>
+        <v>29.83087147653301</v>
       </c>
       <c r="F2">
-        <v>22.12710917420715</v>
+        <v>18.01615393758893</v>
       </c>
       <c r="G2">
-        <v>3.611507248062485</v>
+        <v>2.059998047445903</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.1898689693959</v>
+        <v>19.53270574809958</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.69776709310091</v>
+        <v>13.82165601864499</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.721051978771539</v>
+        <v>6.896877788940231</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.244083202001988</v>
+        <v>3.939457023635823</v>
       </c>
       <c r="E3">
-        <v>15.57734658471344</v>
+        <v>27.65525296231879</v>
       </c>
       <c r="F3">
-        <v>22.13571753165265</v>
+        <v>17.43861022315259</v>
       </c>
       <c r="G3">
-        <v>3.613781892252304</v>
+        <v>2.066371979178875</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.60425677748446</v>
+        <v>18.40354715769935</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.77170363363452</v>
+        <v>13.6379292122499</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.678304469731427</v>
+        <v>6.670374637197571</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.219243919358759</v>
+        <v>3.868298705187156</v>
       </c>
       <c r="E4">
-        <v>14.9762730581507</v>
+        <v>26.25695073960306</v>
       </c>
       <c r="F4">
-        <v>22.14977369286306</v>
+        <v>17.10257706764299</v>
       </c>
       <c r="G4">
-        <v>3.61525029970695</v>
+        <v>2.070382922094648</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.22720370185752</v>
+        <v>17.67564430386539</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.82380725407645</v>
+        <v>13.54669678310875</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.661286325873776</v>
+        <v>6.576648042896828</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.209039272153547</v>
+        <v>3.838873212837743</v>
       </c>
       <c r="E5">
-        <v>14.72535078157003</v>
+        <v>25.67107501558274</v>
       </c>
       <c r="F5">
-        <v>22.15769814008227</v>
+        <v>16.97038116468971</v>
       </c>
       <c r="G5">
-        <v>3.615866797302321</v>
+        <v>2.072043062281791</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.06927179968183</v>
+        <v>17.37039675726706</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.84671552071849</v>
+        <v>13.51472408045514</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.658485293552698</v>
+        <v>6.561002848666692</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.2073399882284</v>
+        <v>3.833962139713153</v>
       </c>
       <c r="E6">
-        <v>14.6833330728562</v>
+        <v>25.57281126051302</v>
       </c>
       <c r="F6">
-        <v>22.15914634628169</v>
+        <v>16.94871813753189</v>
       </c>
       <c r="G6">
-        <v>3.61597026189577</v>
+        <v>2.072320309276306</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.04279267223976</v>
+        <v>17.31919287818047</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.85062030282783</v>
+        <v>13.50972263845978</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.678073305230744</v>
+        <v>6.669116194687148</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.219106622097225</v>
+        <v>3.867903557150344</v>
       </c>
       <c r="E7">
-        <v>14.97291285025315</v>
+        <v>26.24911487142221</v>
       </c>
       <c r="F7">
-        <v>22.14987168486793</v>
+        <v>17.10077495458157</v>
       </c>
       <c r="G7">
-        <v>3.615258540600349</v>
+        <v>2.070405205978537</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.22509093559242</v>
+        <v>17.67156240819298</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.82410943301706</v>
+        <v>13.54624481625773</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.767986932106728</v>
+        <v>7.133346805038483</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.270291040836449</v>
+        <v>4.013848922829555</v>
       </c>
       <c r="E8">
-        <v>16.19753306065114</v>
+        <v>29.09346476726899</v>
       </c>
       <c r="F8">
-        <v>22.12825220610344</v>
+        <v>17.81320466276694</v>
       </c>
       <c r="G8">
-        <v>3.612276688394008</v>
+        <v>2.062176313718572</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.99164284852786</v>
+        <v>19.15058862614709</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.72186218762237</v>
+        <v>13.75370186756718</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.955496472215369</v>
+        <v>7.990251792454066</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.367633095611584</v>
+        <v>4.284613934805623</v>
       </c>
       <c r="E9">
-        <v>18.4852547266117</v>
+        <v>34.19272411278997</v>
       </c>
       <c r="F9">
-        <v>22.1557523535738</v>
+        <v>19.35441630347828</v>
       </c>
       <c r="G9">
-        <v>3.606995826406704</v>
+        <v>2.046753877205161</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.35194348402415</v>
+        <v>21.77466924925418</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.5750285022731</v>
+        <v>14.34061324763888</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.09886336303733</v>
+        <v>8.629479301791903</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.43697832447477</v>
+        <v>4.472903437883045</v>
       </c>
       <c r="E10">
-        <v>20.13044485292603</v>
+        <v>37.67369990975056</v>
       </c>
       <c r="F10">
-        <v>22.21884081654166</v>
+        <v>20.57061461668218</v>
       </c>
       <c r="G10">
-        <v>3.603457292364574</v>
+        <v>2.035769903613712</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.2597995382742</v>
+        <v>23.5337691790485</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.50047257446854</v>
+        <v>14.89247636708169</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.165035429096218</v>
+        <v>8.942185250129159</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.467986840393414</v>
+        <v>4.556044259677247</v>
       </c>
       <c r="E11">
-        <v>20.83671822943359</v>
+        <v>39.20627589193356</v>
       </c>
       <c r="F11">
-        <v>22.25686475224322</v>
+        <v>21.14156954286778</v>
       </c>
       <c r="G11">
-        <v>3.601920767349204</v>
+        <v>2.03082613696731</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.65225949558596</v>
+        <v>24.29778584377217</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.47390949278351</v>
+        <v>15.17175691550807</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.19020773127626</v>
+        <v>9.058226671374932</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.479646262455695</v>
+        <v>4.587152382574994</v>
       </c>
       <c r="E12">
-        <v>21.09814401971148</v>
+        <v>39.77992672516806</v>
       </c>
       <c r="F12">
-        <v>22.27260148347101</v>
+        <v>21.36030978117553</v>
       </c>
       <c r="G12">
-        <v>3.601349381174448</v>
+        <v>2.028959589517859</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.79788004104889</v>
+        <v>24.5819526159902</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.46491692200775</v>
+        <v>15.28172642347981</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.184781700509596</v>
+        <v>9.033340052204991</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.477138969010663</v>
+        <v>4.580469589783569</v>
       </c>
       <c r="E13">
-        <v>21.04210870690075</v>
+        <v>39.65666808724012</v>
       </c>
       <c r="F13">
-        <v>22.26915286611137</v>
+        <v>21.31308736728387</v>
       </c>
       <c r="G13">
-        <v>3.601471975032119</v>
+        <v>2.029361372392151</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.76665187800998</v>
+        <v>24.52098013640778</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.46680607317651</v>
+        <v>15.25785279137112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.167104207463264</v>
+        <v>8.951779406458522</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.468947759737177</v>
+        <v>4.558611141044896</v>
       </c>
       <c r="E14">
-        <v>20.85834643527608</v>
+        <v>39.25360097204811</v>
       </c>
       <c r="F14">
-        <v>22.25813263465861</v>
+        <v>21.15951463587936</v>
       </c>
       <c r="G14">
-        <v>3.60187354972077</v>
+        <v>2.030672476389843</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.66430003838627</v>
+        <v>24.32126722750564</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.47314824932983</v>
+        <v>15.18071889511826</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.156290452983896</v>
+        <v>8.901513139293165</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.46391945650498</v>
+        <v>4.545172933331576</v>
       </c>
       <c r="E15">
-        <v>20.74500315829879</v>
+        <v>39.00585767892547</v>
       </c>
       <c r="F15">
-        <v>22.2515565291936</v>
+        <v>21.06577686419696</v>
       </c>
       <c r="G15">
-        <v>3.602120886578237</v>
+        <v>2.031476223101382</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.60121533445229</v>
+        <v>24.19826868067457</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.47717213365593</v>
+        <v>15.1340251540508</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.094556107310462</v>
+        <v>8.608709110669212</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.43494055658422</v>
+        <v>4.467418154018777</v>
       </c>
       <c r="E16">
-        <v>20.0834433290267</v>
+        <v>37.57256893031505</v>
       </c>
       <c r="F16">
-        <v>22.21654329752543</v>
+        <v>20.53365561308323</v>
       </c>
       <c r="G16">
-        <v>3.603559175197773</v>
+        <v>2.036093884252429</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.23373434263626</v>
+        <v>23.48311471108824</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.5023572719758</v>
+        <v>14.87480594341156</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.056912154227996</v>
+        <v>8.424817088269796</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.417021368777747</v>
+        <v>4.419063592321891</v>
       </c>
       <c r="E17">
-        <v>19.66683101266519</v>
+        <v>36.68066557275705</v>
       </c>
       <c r="F17">
-        <v>22.19745070715419</v>
+        <v>20.21172970526354</v>
       </c>
       <c r="G17">
-        <v>3.604460217300669</v>
+        <v>2.038938826202401</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.00300492874529</v>
+        <v>23.03515147660395</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.51969733924661</v>
+        <v>14.72312435811259</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.03535148391078</v>
+        <v>8.325262556365457</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.40666451014402</v>
+        <v>4.391015469555802</v>
       </c>
       <c r="E18">
-        <v>19.42323896469269</v>
+        <v>36.16283043557149</v>
       </c>
       <c r="F18">
-        <v>22.18734716437935</v>
+        <v>20.02823136785576</v>
       </c>
       <c r="G18">
-        <v>3.604985363706231</v>
+        <v>2.040580276561835</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.86836522472677</v>
+        <v>22.77408224547498</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.53036246705981</v>
+        <v>14.63853013748432</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.028067758421994</v>
+        <v>8.295274348522634</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.403149404549535</v>
+        <v>4.381478821413544</v>
       </c>
       <c r="E19">
-        <v>19.34008039606956</v>
+        <v>35.9866520498757</v>
       </c>
       <c r="F19">
-        <v>22.18407713020196</v>
+        <v>19.96638890340548</v>
       </c>
       <c r="G19">
-        <v>3.605164354580164</v>
+        <v>2.041136980915297</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.822448490085</v>
+        <v>22.68510116828657</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.53409199232285</v>
+        <v>14.610338272249</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.060910150174172</v>
+        <v>8.44455589504881</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.418934135147139</v>
+        <v>4.424235538941908</v>
       </c>
       <c r="E20">
-        <v>19.71159049698633</v>
+        <v>36.77610644243894</v>
       </c>
       <c r="F20">
-        <v>22.19939228933958</v>
+        <v>20.24582716177803</v>
       </c>
       <c r="G20">
-        <v>3.60436358708805</v>
+        <v>2.038635462057381</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.02776658630608</v>
+        <v>23.083190774297</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.51777981655941</v>
+        <v>14.73899584953327</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.172293592677798</v>
+        <v>8.97579986943316</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.47135600845392</v>
+        <v>4.565041788115214</v>
       </c>
       <c r="E21">
-        <v>20.91248510599658</v>
+        <v>39.37216810439191</v>
       </c>
       <c r="F21">
-        <v>22.26133326914454</v>
+        <v>21.20455387786716</v>
       </c>
       <c r="G21">
-        <v>3.601755314024385</v>
+        <v>2.030287240320607</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.69444485575765</v>
+        <v>24.38006696102365</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.47125639119005</v>
+        <v>15.20325947672831</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.245745297028327</v>
+        <v>9.309181577686036</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.505131437593392</v>
+        <v>4.654873364824631</v>
       </c>
       <c r="E22">
-        <v>21.66223869682883</v>
+        <v>41.03012604830687</v>
       </c>
       <c r="F22">
-        <v>22.30961050689012</v>
+        <v>21.84591691218817</v>
       </c>
       <c r="G22">
-        <v>3.600111612850251</v>
+        <v>2.024862409898874</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.11268320390847</v>
+        <v>25.19767437587526</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.44706952315168</v>
+        <v>15.53130415588734</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.206490199151812</v>
+        <v>9.132501491466597</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.487151076472728</v>
+        <v>4.607133263624346</v>
       </c>
       <c r="E23">
-        <v>21.26528164505243</v>
+        <v>40.14855849563991</v>
       </c>
       <c r="F23">
-        <v>22.28313236243122</v>
+        <v>21.50225165140857</v>
       </c>
       <c r="G23">
-        <v>3.600983329208055</v>
+        <v>2.027755631263357</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.89107260654255</v>
+        <v>24.76402076999405</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.45940668062938</v>
+        <v>15.35391764521262</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.059102401115704</v>
+        <v>8.435637051058388</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.418069543944076</v>
+        <v>4.421898074614482</v>
       </c>
       <c r="E24">
-        <v>19.69136743354468</v>
+        <v>36.73297345692966</v>
       </c>
       <c r="F24">
-        <v>22.19851178024275</v>
+        <v>20.23040677521447</v>
       </c>
       <c r="G24">
-        <v>3.604407251406613</v>
+        <v>2.038772594596996</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.01657803696699</v>
+        <v>23.06148320452407</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.51864456083441</v>
+        <v>14.73181223158716</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.903696415035684</v>
+        <v>7.764715352719575</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.341657799802075</v>
+        <v>4.213154685170485</v>
       </c>
       <c r="E25">
-        <v>17.84181157643668</v>
+        <v>32.86191197301633</v>
       </c>
       <c r="F25">
-        <v>22.14079293537749</v>
+        <v>18.92249329763292</v>
       </c>
       <c r="G25">
-        <v>3.608364208569877</v>
+        <v>2.050858217652307</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.99975903782674</v>
+        <v>21.0944971901012</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.60894074031387</v>
+        <v>14.16137179496164</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.255729905248814</v>
+        <v>5.830559078307802</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.052400354135175</v>
+        <v>4.05224556568083</v>
       </c>
       <c r="E2">
-        <v>29.83087147653301</v>
+        <v>14.65450099282531</v>
       </c>
       <c r="F2">
-        <v>18.01615393758893</v>
+        <v>24.98979208541448</v>
       </c>
       <c r="G2">
-        <v>2.059998047445903</v>
+        <v>35.16368355843755</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.877117595328463</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.597007928081834</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.16073994883218</v>
       </c>
       <c r="K2">
-        <v>19.53270574809958</v>
+        <v>15.81134233393687</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.77717827336655</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.82165601864499</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.21839987150576</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.896877788940231</v>
+        <v>5.529312788888233</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.939457023635823</v>
+        <v>4.022574270731143</v>
       </c>
       <c r="E3">
-        <v>27.65525296231879</v>
+        <v>13.83323472501031</v>
       </c>
       <c r="F3">
-        <v>17.43861022315259</v>
+        <v>24.0353831458494</v>
       </c>
       <c r="G3">
-        <v>2.066371979178875</v>
+        <v>33.64718806081251</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.626852739916426</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.721424056453005</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.97869074408844</v>
       </c>
       <c r="K3">
-        <v>18.40354715769935</v>
+        <v>15.92954408615093</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.7854127867996</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.6379292122499</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.2364655305274</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.670374637197571</v>
+        <v>5.331220256968415</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.868298705187156</v>
+        <v>4.003554407556764</v>
       </c>
       <c r="E4">
-        <v>26.25695073960306</v>
+        <v>13.30304726557518</v>
       </c>
       <c r="F4">
-        <v>17.10257706764299</v>
+        <v>23.44176032945489</v>
       </c>
       <c r="G4">
-        <v>2.070382922094648</v>
+        <v>32.69707681081033</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.655212418641725</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.801002351107744</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.86959112477356</v>
       </c>
       <c r="K4">
-        <v>17.67564430386539</v>
+        <v>16.00180997569337</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.14793366132119</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.54669678310875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.60392844432243</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576648042896828</v>
+        <v>5.237867756842999</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.838873212837743</v>
+        <v>3.996204728907074</v>
       </c>
       <c r="E5">
-        <v>25.67107501558274</v>
+        <v>13.07657815407962</v>
       </c>
       <c r="F5">
-        <v>16.97038116468971</v>
+        <v>23.18347977115934</v>
       </c>
       <c r="G5">
-        <v>2.072043062281791</v>
+        <v>32.27890340071477</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.722856744490209</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.836969538647418</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.82059244392093</v>
       </c>
       <c r="K5">
-        <v>17.37039675726706</v>
+        <v>16.02064563772023</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.88889913189589</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.51472408045514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.34288476103972</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.561002848666692</v>
+        <v>5.210713345490284</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.833962139713153</v>
+        <v>3.995717432942752</v>
       </c>
       <c r="E6">
-        <v>25.57281126051302</v>
+        <v>13.03378267761558</v>
       </c>
       <c r="F6">
-        <v>16.94871813753189</v>
+        <v>23.12244628458413</v>
       </c>
       <c r="G6">
-        <v>2.072320309276306</v>
+        <v>32.17656764359949</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.734264673933993</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.846466446947309</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.80611215159094</v>
       </c>
       <c r="K6">
-        <v>17.31919287818047</v>
+        <v>16.01093843705722</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.85508690716737</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.50972263845978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.30410393181637</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.669116194687148</v>
+        <v>5.29918323802446</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.867903557150344</v>
+        <v>4.0055276449502</v>
       </c>
       <c r="E7">
-        <v>26.24911487142221</v>
+        <v>13.28718156858112</v>
       </c>
       <c r="F7">
-        <v>17.10077495458157</v>
+        <v>23.38966235169254</v>
       </c>
       <c r="G7">
-        <v>2.070405205978537</v>
+        <v>32.60369070053432</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.656371996951416</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.810667046816126</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.85161103530296</v>
       </c>
       <c r="K7">
-        <v>17.67156240819298</v>
+        <v>15.96701281585266</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>15.17023312534914</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.54624481625773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.61380353641702</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.133346805038483</v>
+        <v>5.690979778880837</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.013848922829555</v>
+        <v>4.04509761452183</v>
       </c>
       <c r="E8">
-        <v>29.09346476726899</v>
+        <v>14.36089661751481</v>
       </c>
       <c r="F8">
-        <v>17.81320466276694</v>
+        <v>24.60134872934431</v>
       </c>
       <c r="G8">
-        <v>2.062176313718572</v>
+        <v>34.53533061713146</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.791554200614444</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.650814437017921</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.07510292837192</v>
       </c>
       <c r="K8">
-        <v>19.15058862614709</v>
+        <v>15.80601888577462</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>16.47298325880497</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.75370186756718</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.90239042522259</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.990251792454066</v>
+        <v>6.404317403571902</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.284613934805623</v>
+        <v>4.112298030398885</v>
       </c>
       <c r="E9">
-        <v>34.19272411278997</v>
+        <v>16.28096531441616</v>
       </c>
       <c r="F9">
-        <v>19.35441630347828</v>
+        <v>26.98659040516356</v>
       </c>
       <c r="G9">
-        <v>2.046753877205161</v>
+        <v>38.30040908245903</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.389981713538565</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.347158720456562</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.56422721109525</v>
       </c>
       <c r="K9">
-        <v>21.77466924925418</v>
+        <v>15.54980085561083</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>18.7584884177765</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.34061324763888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.1707973006373</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.629479301791903</v>
+        <v>6.894766808096158</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.472903437883045</v>
+        <v>4.180328325712438</v>
       </c>
       <c r="E10">
-        <v>37.67369990975056</v>
+        <v>17.04964720568243</v>
       </c>
       <c r="F10">
-        <v>20.57061461668218</v>
+        <v>28.416357772338</v>
       </c>
       <c r="G10">
-        <v>2.035769903613712</v>
+        <v>40.47280718988566</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.783468161794678</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.147757274602025</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.83531140154769</v>
       </c>
       <c r="K10">
-        <v>23.5337691790485</v>
+        <v>15.24523832039933</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>20.32118689160265</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.89247636708169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.41997884896279</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.942185250129159</v>
+        <v>7.45383994630948</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.556044259677247</v>
+        <v>4.439035316276767</v>
       </c>
       <c r="E11">
-        <v>39.20627589193356</v>
+        <v>13.2506726045486</v>
       </c>
       <c r="F11">
-        <v>21.14156954286778</v>
+        <v>26.87996532716276</v>
       </c>
       <c r="G11">
-        <v>2.03082613696731</v>
+        <v>37.57587436205231</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.420531357889032</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.108534114314186</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.13624990958127</v>
       </c>
       <c r="K11">
-        <v>24.29778584377217</v>
+        <v>14.2947863011101</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>21.14074018419854</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.17175691550807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.60641631982411</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.058226671374932</v>
+        <v>7.87224031267665</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.587152382574994</v>
+        <v>4.682328454435482</v>
       </c>
       <c r="E12">
-        <v>39.77992672516806</v>
+        <v>10.49749067168011</v>
       </c>
       <c r="F12">
-        <v>21.36030978117553</v>
+        <v>25.32156709228715</v>
       </c>
       <c r="G12">
-        <v>2.028959589517859</v>
+        <v>34.74703321838306</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.501749428747595</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.096234691884984</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.5064490852419</v>
       </c>
       <c r="K12">
-        <v>24.5819526159902</v>
+        <v>13.71770176520154</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>21.489155413723</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.28172642347981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.85956532270564</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.033340052204991</v>
+        <v>8.183296071580163</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.580469589783569</v>
+        <v>4.923888926667472</v>
       </c>
       <c r="E13">
-        <v>39.65666808724012</v>
+        <v>8.847219419433397</v>
       </c>
       <c r="F13">
-        <v>21.31308736728387</v>
+        <v>23.54593350274641</v>
       </c>
       <c r="G13">
-        <v>2.029361372392151</v>
+        <v>31.60372715831593</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.719049034390846</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.118385818513707</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.861047841945709</v>
       </c>
       <c r="K13">
-        <v>24.52098013640778</v>
+        <v>13.35298182083137</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>21.53726905560676</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.25785279137112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.01698511566279</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.951779406458522</v>
+        <v>8.351983236074771</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.558611141044896</v>
+        <v>5.095342434883233</v>
       </c>
       <c r="E14">
-        <v>39.25360097204811</v>
+        <v>8.703445370665877</v>
       </c>
       <c r="F14">
-        <v>21.15951463587936</v>
+        <v>22.17436313665178</v>
       </c>
       <c r="G14">
-        <v>2.030672476389843</v>
+        <v>29.20287044102709</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.61854702327035</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.151888873890152</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.398534787502536</v>
       </c>
       <c r="K14">
-        <v>24.32126722750564</v>
+        <v>13.21190235641681</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>21.44297428299906</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.18071889511826</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.66964872327842</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.901513139293165</v>
+        <v>8.357228487507083</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.545172933331576</v>
+        <v>5.133607564586613</v>
       </c>
       <c r="E15">
-        <v>39.00585767892547</v>
+        <v>8.803357614647558</v>
       </c>
       <c r="F15">
-        <v>21.06577686419696</v>
+        <v>21.77740119885651</v>
       </c>
       <c r="G15">
-        <v>2.031476223101382</v>
+        <v>28.51971912830982</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.823574400113162</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.172202923281451</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.278234922173905</v>
       </c>
       <c r="K15">
-        <v>24.19826868067457</v>
+        <v>13.20494740108208</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>21.36294000771703</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.1340251540508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.31286698061128</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.608709110669212</v>
+        <v>8.087178739290483</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.467418154018777</v>
+        <v>5.053188088114513</v>
       </c>
       <c r="E16">
-        <v>37.57256893031505</v>
+        <v>8.604149807735487</v>
       </c>
       <c r="F16">
-        <v>20.53365561308323</v>
+        <v>21.39465439728346</v>
       </c>
       <c r="G16">
-        <v>2.036093884252429</v>
+        <v>27.97274897551743</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.545362047991158</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.257936214250432</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.269654096663849</v>
       </c>
       <c r="K16">
-        <v>23.48311471108824</v>
+        <v>13.39878772095444</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>20.73175930957046</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.87480594341156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.02898201959384</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.424817088269796</v>
+        <v>7.792474620350902</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.419063592321891</v>
+        <v>4.896852096572728</v>
       </c>
       <c r="E17">
-        <v>36.68066557275705</v>
+        <v>8.326804143961333</v>
       </c>
       <c r="F17">
-        <v>20.21172970526354</v>
+        <v>21.85917549495649</v>
       </c>
       <c r="G17">
-        <v>2.038938826202401</v>
+        <v>28.88664399322983</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.802282015481826</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.306969062670058</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.510830113549172</v>
       </c>
       <c r="K17">
-        <v>23.03515147660395</v>
+        <v>13.60807472593944</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>20.2901382586493</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.72312435811259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.54945744869561</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.325262556365457</v>
+        <v>7.461749104010942</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.391015469555802</v>
+        <v>4.667898617079578</v>
       </c>
       <c r="E18">
-        <v>36.16283043557149</v>
+        <v>8.978674299015038</v>
       </c>
       <c r="F18">
-        <v>20.02823136785576</v>
+        <v>23.13427700329596</v>
       </c>
       <c r="G18">
-        <v>2.040580276561835</v>
+        <v>31.21463740710906</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.623283059843406</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.317921701395125</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.00748450855384</v>
       </c>
       <c r="K18">
-        <v>22.77408224547498</v>
+        <v>13.93343837490808</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>19.95343772285617</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.63853013748432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.85771459859185</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.295274348522634</v>
+        <v>7.084181101253872</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.381478821413544</v>
+        <v>4.432287621882044</v>
       </c>
       <c r="E19">
-        <v>35.9866520498757</v>
+        <v>11.41159229027049</v>
       </c>
       <c r="F19">
-        <v>19.96638890340548</v>
+        <v>24.87128387600407</v>
       </c>
       <c r="G19">
-        <v>2.041136980915297</v>
+        <v>34.33502729851654</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.367405994747044</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.312859456203136</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.64872961890068</v>
       </c>
       <c r="K19">
-        <v>22.68510116828657</v>
+        <v>14.39120708228806</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>19.7756628834712</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.610338272249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.75968341740445</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.44455589504881</v>
+        <v>6.694136191424567</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.424235538941908</v>
+        <v>4.171582858995226</v>
       </c>
       <c r="E20">
-        <v>36.77610644243894</v>
+        <v>16.79678757028747</v>
       </c>
       <c r="F20">
-        <v>20.24582716177803</v>
+        <v>27.90689935889245</v>
       </c>
       <c r="G20">
-        <v>2.038635462057381</v>
+        <v>39.66551864967138</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.678681277476407</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.229060351002395</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.71030533603315</v>
       </c>
       <c r="K20">
-        <v>23.083190774297</v>
+        <v>15.21612493661112</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>19.98479975991595</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.73899584953327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.11913979642922</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.97579986943316</v>
+        <v>6.999874148678837</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.565041788115214</v>
+        <v>4.187962648136119</v>
       </c>
       <c r="E21">
-        <v>39.37216810439191</v>
+        <v>18.15340549756189</v>
       </c>
       <c r="F21">
-        <v>21.20455387786716</v>
+        <v>29.39878096902437</v>
       </c>
       <c r="G21">
-        <v>2.030287240320607</v>
+        <v>42.03082275968226</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.014132311406756</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.068308916366282</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>12.07808302731794</v>
       </c>
       <c r="K21">
-        <v>24.38006696102365</v>
+        <v>15.15370091793979</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>21.10451589156287</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.20325947672831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.45436066473625</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.309181577686036</v>
+        <v>7.240690793122894</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.654873364824631</v>
+        <v>4.205540783741238</v>
       </c>
       <c r="E22">
-        <v>41.03012604830687</v>
+        <v>18.7650878375077</v>
       </c>
       <c r="F22">
-        <v>21.84591691218817</v>
+        <v>30.28233261135528</v>
       </c>
       <c r="G22">
-        <v>2.024862409898874</v>
+        <v>43.41035229686437</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.216873582823671</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.955437062254815</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>12.29226213871</v>
       </c>
       <c r="K22">
-        <v>25.19767437587526</v>
+        <v>15.1079758097338</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21.79367494020267</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.53130415588734</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.1452219160948</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.132501491466597</v>
+        <v>7.141453691681112</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.607133263624346</v>
+        <v>4.193183438910901</v>
       </c>
       <c r="E23">
-        <v>40.14855849563991</v>
+        <v>18.45191808456669</v>
       </c>
       <c r="F23">
-        <v>21.50225165140857</v>
+        <v>29.85692143135218</v>
       </c>
       <c r="G23">
-        <v>2.027755631263357</v>
+        <v>42.75571556182251</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.10911786130864</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.003806814828043</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>12.1955550043558</v>
       </c>
       <c r="K23">
-        <v>24.76402076999405</v>
+        <v>15.17264702114292</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>21.40535786712981</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.35391764521262</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.76740670452914</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.435637051058388</v>
+        <v>6.698463739141316</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.421898074614482</v>
+        <v>4.149689287236222</v>
       </c>
       <c r="E24">
-        <v>36.73297345692966</v>
+        <v>17.20421086847962</v>
       </c>
       <c r="F24">
-        <v>20.23040677521447</v>
+        <v>28.15237299728983</v>
       </c>
       <c r="G24">
-        <v>2.038772594596996</v>
+        <v>40.10675752087091</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.694306009016411</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.210312677989294</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.80661126316915</v>
       </c>
       <c r="K24">
-        <v>23.06148320452407</v>
+        <v>15.35432479548331</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>19.91929088799989</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.73181223158716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.30086016754908</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.764715352719575</v>
+        <v>6.174332076697759</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.213154685170485</v>
+        <v>4.099103963959359</v>
       </c>
       <c r="E25">
-        <v>32.86191197301633</v>
+        <v>15.76391874505065</v>
       </c>
       <c r="F25">
-        <v>18.92249329763292</v>
+        <v>26.27293278441696</v>
       </c>
       <c r="G25">
-        <v>2.050858217652307</v>
+        <v>37.16385096739651</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.231658186887858</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.443031727872239</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.40042036510001</v>
       </c>
       <c r="K25">
-        <v>21.0944971901012</v>
+        <v>15.55719741460978</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>18.20432403499387</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.16137179496164</v>
+        <v>17.60296405012826</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.830559078307802</v>
+        <v>5.900051031859127</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.05224556568083</v>
+        <v>4.079350099181496</v>
       </c>
       <c r="E2">
-        <v>14.65450099282531</v>
+        <v>14.49211015232636</v>
       </c>
       <c r="F2">
-        <v>24.98979208541448</v>
+        <v>24.48615715586352</v>
       </c>
       <c r="G2">
-        <v>35.16368355843755</v>
+        <v>33.76530336969507</v>
       </c>
       <c r="H2">
-        <v>1.877117595328463</v>
+        <v>1.897714454380343</v>
       </c>
       <c r="I2">
-        <v>3.597007928081834</v>
+        <v>3.30753828697935</v>
       </c>
       <c r="J2">
-        <v>11.16073994883218</v>
+        <v>11.44546712304432</v>
       </c>
       <c r="K2">
-        <v>15.81134233393687</v>
+        <v>14.75874656843561</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.92919977453708</v>
       </c>
       <c r="M2">
-        <v>16.77717827336655</v>
+        <v>9.846449819884411</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.21839987150576</v>
+        <v>16.90607049712427</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.40024511439266</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.529312788888233</v>
+        <v>5.700289898487916</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.022574270731143</v>
+        <v>4.033869936654304</v>
       </c>
       <c r="E3">
-        <v>13.83323472501031</v>
+        <v>13.70914029690982</v>
       </c>
       <c r="F3">
-        <v>24.0353831458494</v>
+        <v>23.62390213035731</v>
       </c>
       <c r="G3">
-        <v>33.64718806081251</v>
+        <v>32.41464372190897</v>
       </c>
       <c r="H3">
-        <v>1.626852739916426</v>
+        <v>1.654864110348497</v>
       </c>
       <c r="I3">
-        <v>3.721424056453005</v>
+        <v>3.410172974156886</v>
       </c>
       <c r="J3">
-        <v>10.97869074408844</v>
+        <v>11.26080491581465</v>
       </c>
       <c r="K3">
-        <v>15.92954408615093</v>
+        <v>14.92135889736775</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.10748434204213</v>
       </c>
       <c r="M3">
-        <v>15.7854127867996</v>
+        <v>9.956652842913726</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.2364655305274</v>
+        <v>15.86055657794457</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.3978113662114</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.331220256968415</v>
+        <v>5.569280770924383</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.003554407556764</v>
+        <v>4.005233132807861</v>
       </c>
       <c r="E4">
-        <v>13.30304726557518</v>
+        <v>13.20387994227483</v>
       </c>
       <c r="F4">
-        <v>23.44176032945489</v>
+        <v>23.0879643861958</v>
       </c>
       <c r="G4">
-        <v>32.69707681081033</v>
+        <v>31.57459534845707</v>
       </c>
       <c r="H4">
-        <v>1.655212418641725</v>
+        <v>1.62173178832314</v>
       </c>
       <c r="I4">
-        <v>3.801002351107744</v>
+        <v>3.476170248490103</v>
       </c>
       <c r="J4">
-        <v>10.86959112477356</v>
+        <v>11.1468792235347</v>
       </c>
       <c r="K4">
-        <v>16.00180997569337</v>
+        <v>15.02049624419079</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.21992419554178</v>
       </c>
       <c r="M4">
-        <v>15.14793366132119</v>
+        <v>10.03447377231631</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.60392844432243</v>
+        <v>15.18751914843215</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.75185822615813</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.237867756842999</v>
+        <v>5.506525249503591</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.996204728907074</v>
+        <v>3.993970812009461</v>
       </c>
       <c r="E5">
-        <v>13.07657815407962</v>
+        <v>12.98852153794396</v>
       </c>
       <c r="F5">
-        <v>23.18347977115934</v>
+        <v>22.85561664568712</v>
       </c>
       <c r="G5">
-        <v>32.27890340071477</v>
+        <v>31.20704872721029</v>
       </c>
       <c r="H5">
-        <v>1.722856744490209</v>
+        <v>1.687387967496318</v>
       </c>
       <c r="I5">
-        <v>3.836969538647418</v>
+        <v>3.507011874415938</v>
       </c>
       <c r="J5">
-        <v>10.82059244392093</v>
+        <v>11.09597657209138</v>
       </c>
       <c r="K5">
-        <v>16.02064563772023</v>
+        <v>15.05233659452487</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.25780008298516</v>
       </c>
       <c r="M5">
-        <v>14.88889913189589</v>
+        <v>10.06483682988883</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.34288476103972</v>
+        <v>14.91235158436314</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.4845318354421</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.210713345490284</v>
+        <v>5.487064549033012</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.995717432942752</v>
+        <v>3.992811251891187</v>
       </c>
       <c r="E6">
-        <v>13.03378267761558</v>
+        <v>12.94831973686587</v>
       </c>
       <c r="F6">
-        <v>23.12244628458413</v>
+        <v>22.80162081654378</v>
       </c>
       <c r="G6">
-        <v>32.17656764359949</v>
+        <v>31.11792324893026</v>
       </c>
       <c r="H6">
-        <v>1.734264673933993</v>
+        <v>1.698449701969243</v>
       </c>
       <c r="I6">
-        <v>3.846466446947309</v>
+        <v>3.516268748306459</v>
       </c>
       <c r="J6">
-        <v>10.80611215159094</v>
+        <v>11.08218554807836</v>
       </c>
       <c r="K6">
-        <v>16.01093843705722</v>
+        <v>15.04740493069104</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.25357987358449</v>
       </c>
       <c r="M6">
-        <v>14.85508690716737</v>
+        <v>10.06529967311489</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.30410393181637</v>
+        <v>14.87458032733055</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.44393745873099</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.29918323802446</v>
+        <v>5.550949328300312</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.0055276449502</v>
+        <v>4.009509210300569</v>
       </c>
       <c r="E7">
-        <v>13.28718156858112</v>
+        <v>13.19160075306733</v>
       </c>
       <c r="F7">
-        <v>23.38966235169254</v>
+        <v>23.00894730795654</v>
       </c>
       <c r="G7">
-        <v>32.60369070053432</v>
+        <v>31.55967762082617</v>
       </c>
       <c r="H7">
-        <v>1.656371996951416</v>
+        <v>1.623484795762459</v>
       </c>
       <c r="I7">
-        <v>3.810667046816126</v>
+        <v>3.487700358082112</v>
       </c>
       <c r="J7">
-        <v>10.85161103530296</v>
+        <v>11.07176105899152</v>
       </c>
       <c r="K7">
-        <v>15.96701281585266</v>
+        <v>14.98601883942203</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.18544807719844</v>
       </c>
       <c r="M7">
-        <v>15.17023312534914</v>
+        <v>10.01743556475213</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.61380353641702</v>
+        <v>15.19887860697232</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.75620146737241</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.690979778880837</v>
+        <v>5.823466047255602</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.04509761452183</v>
+        <v>4.075097712829831</v>
       </c>
       <c r="E8">
-        <v>14.36089661751481</v>
+        <v>14.2186216071934</v>
       </c>
       <c r="F8">
-        <v>24.60134872934431</v>
+        <v>24.02869537533305</v>
       </c>
       <c r="G8">
-        <v>34.53533061713146</v>
+        <v>33.41527183129028</v>
       </c>
       <c r="H8">
-        <v>1.791554200614444</v>
+        <v>1.812735736264825</v>
       </c>
       <c r="I8">
-        <v>3.650814437017921</v>
+        <v>3.356938791057192</v>
       </c>
       <c r="J8">
-        <v>11.07510292837192</v>
+        <v>11.16893986582316</v>
       </c>
       <c r="K8">
-        <v>15.80601888577462</v>
+        <v>14.75649491465676</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.9367590602344</v>
       </c>
       <c r="M8">
-        <v>16.47298325880497</v>
+        <v>9.846971717301901</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.90239042522259</v>
+        <v>16.55688928942064</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.06427266960088</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.404317403571902</v>
+        <v>6.306637241456866</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.112298030398885</v>
+        <v>4.184996476385074</v>
       </c>
       <c r="E9">
-        <v>16.28096531441616</v>
+        <v>16.04937454336325</v>
       </c>
       <c r="F9">
-        <v>26.98659040516356</v>
+        <v>26.16508302492803</v>
       </c>
       <c r="G9">
-        <v>38.30040908245903</v>
+        <v>36.83755347387064</v>
       </c>
       <c r="H9">
-        <v>2.389981713538565</v>
+        <v>2.392785145270381</v>
       </c>
       <c r="I9">
-        <v>3.347158720456562</v>
+        <v>3.105057445024202</v>
       </c>
       <c r="J9">
-        <v>11.56422721109525</v>
+        <v>11.59793412157378</v>
       </c>
       <c r="K9">
-        <v>15.54980085561083</v>
+        <v>14.37344385496514</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>11.54134963848739</v>
       </c>
       <c r="M9">
-        <v>18.7584884177765</v>
+        <v>9.637074104656438</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.1707973006373</v>
+        <v>18.96252566296804</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.37961572555984</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.894766808096158</v>
+        <v>6.69941468760113</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.180328325712438</v>
+        <v>4.302385749017811</v>
       </c>
       <c r="E10">
-        <v>17.04964720568243</v>
+        <v>16.77298600926757</v>
       </c>
       <c r="F10">
-        <v>28.416357772338</v>
+        <v>27.28436240906657</v>
       </c>
       <c r="G10">
-        <v>40.47280718988566</v>
+        <v>39.16980498661932</v>
       </c>
       <c r="H10">
-        <v>2.783468161794678</v>
+        <v>2.770465664425114</v>
       </c>
       <c r="I10">
-        <v>3.147757274602025</v>
+        <v>2.944843888425441</v>
       </c>
       <c r="J10">
-        <v>11.83531140154769</v>
+        <v>11.50685700245647</v>
       </c>
       <c r="K10">
-        <v>15.24523832039933</v>
+        <v>13.97654728039454</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>11.1913172599828</v>
       </c>
       <c r="M10">
-        <v>20.32118689160265</v>
+        <v>9.438598092292661</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.41997884896279</v>
+        <v>20.55337215970881</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.63593907936907</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.45383994630948</v>
+        <v>7.396425670789496</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.439035316276767</v>
+        <v>4.627005890001491</v>
       </c>
       <c r="E11">
-        <v>13.2506726045486</v>
+        <v>13.00995328544978</v>
       </c>
       <c r="F11">
-        <v>26.87996532716276</v>
+        <v>25.56202116523238</v>
       </c>
       <c r="G11">
-        <v>37.57587436205231</v>
+        <v>37.288634813554</v>
       </c>
       <c r="H11">
-        <v>3.420531357889032</v>
+        <v>3.402841917322913</v>
       </c>
       <c r="I11">
-        <v>3.108534114314186</v>
+        <v>2.922955244017269</v>
       </c>
       <c r="J11">
-        <v>11.13624990958127</v>
+        <v>10.26265026566453</v>
       </c>
       <c r="K11">
-        <v>14.2947863011101</v>
+        <v>13.24869056736535</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.70189988428045</v>
       </c>
       <c r="M11">
-        <v>21.14074018419854</v>
+        <v>8.853394980608686</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.60641631982411</v>
+        <v>21.21790736921416</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.74434978786524</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.87224031267665</v>
+        <v>7.930620022780491</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.682328454435482</v>
+        <v>4.899891177342459</v>
       </c>
       <c r="E12">
-        <v>10.49749067168011</v>
+        <v>10.2739800085463</v>
       </c>
       <c r="F12">
-        <v>25.32156709228715</v>
+        <v>24.00583927183436</v>
       </c>
       <c r="G12">
-        <v>34.74703321838306</v>
+        <v>35.07665360477377</v>
       </c>
       <c r="H12">
-        <v>4.501749428747595</v>
+        <v>4.486854087360066</v>
       </c>
       <c r="I12">
-        <v>3.096234691884984</v>
+        <v>2.913829083945233</v>
       </c>
       <c r="J12">
-        <v>10.5064490852419</v>
+        <v>9.472067899928103</v>
       </c>
       <c r="K12">
-        <v>13.71770176520154</v>
+        <v>12.86883698321096</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.48517744646134</v>
       </c>
       <c r="M12">
-        <v>21.489155413723</v>
+        <v>8.503349899742316</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.85956532270564</v>
+        <v>21.4517358302501</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.86808982752304</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.183296071580163</v>
+        <v>8.332964512272643</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.923888926667472</v>
+        <v>5.126340074205237</v>
       </c>
       <c r="E13">
-        <v>8.847219419433397</v>
+        <v>8.638291590488095</v>
       </c>
       <c r="F13">
-        <v>23.54593350274641</v>
+        <v>22.46131722036457</v>
       </c>
       <c r="G13">
-        <v>31.60372715831593</v>
+        <v>32.16572042371106</v>
       </c>
       <c r="H13">
-        <v>5.719049034390846</v>
+        <v>5.708758972666628</v>
       </c>
       <c r="I13">
-        <v>3.118385818513707</v>
+        <v>2.930903723756956</v>
       </c>
       <c r="J13">
-        <v>9.861047841945709</v>
+        <v>9.046594460700835</v>
       </c>
       <c r="K13">
-        <v>13.35298182083137</v>
+        <v>12.68448935338557</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.39736325732789</v>
       </c>
       <c r="M13">
-        <v>21.53726905560676</v>
+        <v>8.301138831912546</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.01698511566279</v>
+        <v>21.41705908699754</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.98085350024629</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.351983236074771</v>
+        <v>8.553117489995124</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.095342434883233</v>
+        <v>5.263597682455586</v>
       </c>
       <c r="E14">
-        <v>8.703445370665877</v>
+        <v>8.514029155787016</v>
       </c>
       <c r="F14">
-        <v>22.17436313665178</v>
+        <v>21.35552180183924</v>
       </c>
       <c r="G14">
-        <v>29.20287044102709</v>
+        <v>29.76256761927888</v>
       </c>
       <c r="H14">
-        <v>6.61854702327035</v>
+        <v>6.611334968400347</v>
       </c>
       <c r="I14">
-        <v>3.151888873890152</v>
+        <v>2.957900465151371</v>
       </c>
       <c r="J14">
-        <v>9.398534787502536</v>
+        <v>8.887567645773808</v>
       </c>
       <c r="K14">
-        <v>13.21190235641681</v>
+        <v>12.63985418708213</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.38183233154482</v>
       </c>
       <c r="M14">
-        <v>21.44297428299906</v>
+        <v>8.234271212640778</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.66964872327842</v>
+        <v>21.27654786772048</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.60652278622909</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.357228487507083</v>
+        <v>8.57002400115732</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.133607564586613</v>
+        <v>5.284450756692018</v>
       </c>
       <c r="E15">
-        <v>8.803357614647558</v>
+        <v>8.623093950806897</v>
       </c>
       <c r="F15">
-        <v>21.77740119885651</v>
+        <v>21.06905921801438</v>
       </c>
       <c r="G15">
-        <v>28.51971912830982</v>
+        <v>29.01060332706368</v>
       </c>
       <c r="H15">
-        <v>6.823574400113162</v>
+        <v>6.817390801720184</v>
       </c>
       <c r="I15">
-        <v>3.172202923281451</v>
+        <v>2.975664686850291</v>
       </c>
       <c r="J15">
-        <v>9.278234922173905</v>
+        <v>8.903359819837121</v>
       </c>
       <c r="K15">
-        <v>13.20494740108208</v>
+        <v>12.65152929048718</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.38710694623714</v>
       </c>
       <c r="M15">
-        <v>21.36294000771703</v>
+        <v>8.2396249579509</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.31286698061128</v>
+        <v>21.18991361115268</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.24457629438992</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.087178739290483</v>
+        <v>8.278265463058892</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.053188088114513</v>
+        <v>5.137560211987333</v>
       </c>
       <c r="E16">
-        <v>8.604149807735487</v>
+        <v>8.459582209524489</v>
       </c>
       <c r="F16">
-        <v>21.39465439728346</v>
+        <v>21.04349308757146</v>
       </c>
       <c r="G16">
-        <v>27.97274897551743</v>
+        <v>27.86836934271266</v>
       </c>
       <c r="H16">
-        <v>6.545362047991158</v>
+        <v>6.542908961757974</v>
       </c>
       <c r="I16">
-        <v>3.257936214250432</v>
+        <v>3.044957462780065</v>
       </c>
       <c r="J16">
-        <v>9.269654096663849</v>
+        <v>9.411832244419728</v>
       </c>
       <c r="K16">
-        <v>13.39878772095444</v>
+        <v>12.83413820655736</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.45690470604915</v>
       </c>
       <c r="M16">
-        <v>20.73175930957046</v>
+        <v>8.414953129901734</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.02898201959384</v>
+        <v>20.60841332089205</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.97669763678185</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.792474620350902</v>
+        <v>7.937355918959585</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.896852096572728</v>
+        <v>4.960659382908204</v>
       </c>
       <c r="E17">
-        <v>8.326804143961333</v>
+        <v>8.190856769447926</v>
       </c>
       <c r="F17">
-        <v>21.85917549495649</v>
+        <v>21.59409428127419</v>
       </c>
       <c r="G17">
-        <v>28.88664399322983</v>
+        <v>28.41350963893149</v>
       </c>
       <c r="H17">
-        <v>5.802282015481826</v>
+        <v>5.801632523118708</v>
       </c>
       <c r="I17">
-        <v>3.306969062670058</v>
+        <v>3.08510313358838</v>
       </c>
       <c r="J17">
-        <v>9.510830113549172</v>
+        <v>9.839900986699593</v>
       </c>
       <c r="K17">
-        <v>13.60807472593944</v>
+        <v>13.00488277960497</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.54241101434904</v>
       </c>
       <c r="M17">
-        <v>20.2901382586493</v>
+        <v>8.573269280056428</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.54945744869561</v>
+        <v>20.22206835956005</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.52233938333247</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.461749104010942</v>
+        <v>7.527617810684719</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.667898617079578</v>
+        <v>4.735327366717139</v>
       </c>
       <c r="E18">
-        <v>8.978674299015038</v>
+        <v>8.825040557833832</v>
       </c>
       <c r="F18">
-        <v>23.13427700329596</v>
+        <v>22.78900274642792</v>
       </c>
       <c r="G18">
-        <v>31.21463740710906</v>
+        <v>30.39393661941151</v>
       </c>
       <c r="H18">
-        <v>4.623283059843406</v>
+        <v>4.623587595907104</v>
       </c>
       <c r="I18">
-        <v>3.317921701395125</v>
+        <v>3.090745343597584</v>
       </c>
       <c r="J18">
-        <v>10.00748450855384</v>
+        <v>10.35977660709352</v>
       </c>
       <c r="K18">
-        <v>13.93343837490808</v>
+        <v>13.24045154714957</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.69284719549353</v>
       </c>
       <c r="M18">
-        <v>19.95343772285617</v>
+        <v>8.77432321901478</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.85771459859185</v>
+        <v>19.96612356969647</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.87356682537655</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.084181101253872</v>
+        <v>7.0567234698174</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.432287621882044</v>
+        <v>4.510466196955311</v>
       </c>
       <c r="E19">
-        <v>11.41159229027049</v>
+        <v>11.22100098291302</v>
       </c>
       <c r="F19">
-        <v>24.87128387600407</v>
+        <v>24.35710712071165</v>
       </c>
       <c r="G19">
-        <v>34.33502729851654</v>
+        <v>33.17646020495503</v>
       </c>
       <c r="H19">
-        <v>3.367405994747044</v>
+        <v>3.367709300751101</v>
       </c>
       <c r="I19">
-        <v>3.312859456203136</v>
+        <v>3.088049122615263</v>
       </c>
       <c r="J19">
-        <v>10.64872961890068</v>
+        <v>10.93804814566578</v>
       </c>
       <c r="K19">
-        <v>14.39120708228806</v>
+        <v>13.54670947629566</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.90787110853808</v>
       </c>
       <c r="M19">
-        <v>19.7756628834712</v>
+        <v>9.025698319564428</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.75968341740445</v>
+        <v>19.88122404989462</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.91416089747387</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.694136191424567</v>
+        <v>6.517914522577119</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.171582858995226</v>
+        <v>4.270543885914449</v>
       </c>
       <c r="E20">
-        <v>16.79678757028747</v>
+        <v>16.53227349043122</v>
       </c>
       <c r="F20">
-        <v>27.90689935889245</v>
+        <v>26.98011907423292</v>
       </c>
       <c r="G20">
-        <v>39.66551864967138</v>
+        <v>38.1576597680283</v>
       </c>
       <c r="H20">
-        <v>2.678681277476407</v>
+        <v>2.671791923091093</v>
       </c>
       <c r="I20">
-        <v>3.229060351002395</v>
+        <v>3.020678092125539</v>
       </c>
       <c r="J20">
-        <v>11.71030533603315</v>
+        <v>11.68333897356066</v>
       </c>
       <c r="K20">
-        <v>15.21612493661112</v>
+        <v>14.0261082527322</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>11.24117482908549</v>
       </c>
       <c r="M20">
-        <v>19.98479975991595</v>
+        <v>9.443697655843499</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.11913979642922</v>
+        <v>20.22213022101883</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.3379710121151</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.999874148678837</v>
+        <v>6.837808349672998</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.187962648136119</v>
+        <v>4.378886319618294</v>
       </c>
       <c r="E21">
-        <v>18.15340549756189</v>
+        <v>17.87062610797191</v>
       </c>
       <c r="F21">
-        <v>29.39878096902437</v>
+        <v>27.65643468308792</v>
       </c>
       <c r="G21">
-        <v>42.03082275968226</v>
+        <v>41.59006931420141</v>
       </c>
       <c r="H21">
-        <v>3.014132311406756</v>
+        <v>2.985381480925363</v>
       </c>
       <c r="I21">
-        <v>3.068308916366282</v>
+        <v>2.894692275902861</v>
       </c>
       <c r="J21">
-        <v>12.07808302731794</v>
+        <v>10.74221258427319</v>
       </c>
       <c r="K21">
-        <v>15.15370091793979</v>
+        <v>13.71785658572089</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.99110827602858</v>
       </c>
       <c r="M21">
-        <v>21.10451589156287</v>
+        <v>9.291831767738055</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.45436066473625</v>
+        <v>21.274810064588</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.63845271645566</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.240690793122894</v>
+        <v>7.099338122462387</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.205540783741238</v>
+        <v>4.464684095652192</v>
       </c>
       <c r="E22">
-        <v>18.7650878375077</v>
+        <v>18.47532732463124</v>
       </c>
       <c r="F22">
-        <v>30.28233261135528</v>
+        <v>27.99093066465466</v>
       </c>
       <c r="G22">
-        <v>43.41035229686437</v>
+        <v>43.73171368561551</v>
       </c>
       <c r="H22">
-        <v>3.216873582823671</v>
+        <v>3.174063573172704</v>
       </c>
       <c r="I22">
-        <v>2.955437062254815</v>
+        <v>2.801679850191595</v>
       </c>
       <c r="J22">
-        <v>12.29226213871</v>
+        <v>10.05879241472052</v>
       </c>
       <c r="K22">
-        <v>15.1079758097338</v>
+        <v>13.50625026842791</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.83197330481674</v>
       </c>
       <c r="M22">
-        <v>21.79367494020267</v>
+        <v>9.187754510457333</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.1452219160948</v>
+        <v>21.91149946694262</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.30241741092485</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.141453691681112</v>
+        <v>6.96901793697111</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.193183438910901</v>
+        <v>4.406967307902184</v>
       </c>
       <c r="E23">
-        <v>18.45191808456669</v>
+        <v>18.16027776625273</v>
       </c>
       <c r="F23">
-        <v>29.85692143135218</v>
+        <v>27.92462685478982</v>
       </c>
       <c r="G23">
-        <v>42.75571556182251</v>
+        <v>42.51947529915546</v>
       </c>
       <c r="H23">
-        <v>3.10911786130864</v>
+        <v>3.074887713170386</v>
       </c>
       <c r="I23">
-        <v>3.003806814828043</v>
+        <v>2.836615318468232</v>
       </c>
       <c r="J23">
-        <v>12.1955550043558</v>
+        <v>10.5691683220477</v>
       </c>
       <c r="K23">
-        <v>15.17264702114292</v>
+        <v>13.66129352466972</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.94154703110731</v>
       </c>
       <c r="M23">
-        <v>21.40535786712981</v>
+        <v>9.281811919772204</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.76740670452914</v>
+        <v>21.56855696029769</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.94749290496758</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.698463739141316</v>
+        <v>6.504723304993954</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.149689287236222</v>
+        <v>4.246837306913951</v>
       </c>
       <c r="E24">
-        <v>17.20421086847962</v>
+        <v>16.93253757256724</v>
       </c>
       <c r="F24">
-        <v>28.15237299728983</v>
+        <v>27.20138903302404</v>
       </c>
       <c r="G24">
-        <v>40.10675752087091</v>
+        <v>38.53637016105873</v>
       </c>
       <c r="H24">
-        <v>2.694306009016411</v>
+        <v>2.68733926819211</v>
       </c>
       <c r="I24">
-        <v>3.210312677989294</v>
+        <v>2.998402082021153</v>
       </c>
       <c r="J24">
-        <v>11.80661126316915</v>
+        <v>11.77555437711797</v>
       </c>
       <c r="K24">
-        <v>15.35432479548331</v>
+        <v>14.12215412006751</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>11.30974170436427</v>
       </c>
       <c r="M24">
-        <v>19.91929088799989</v>
+        <v>9.521719238748954</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.30086016754908</v>
+        <v>20.17124180792574</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.5275199381018</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.174332076697759</v>
+        <v>6.135924004510647</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.099103963959359</v>
+        <v>4.156511262966728</v>
       </c>
       <c r="E25">
-        <v>15.76391874505065</v>
+        <v>15.5564305724752</v>
       </c>
       <c r="F25">
-        <v>26.27293278441696</v>
+        <v>25.57314149402268</v>
       </c>
       <c r="G25">
-        <v>37.16385096739651</v>
+        <v>35.72303728641001</v>
       </c>
       <c r="H25">
-        <v>2.231658186887858</v>
+        <v>2.240238747786679</v>
       </c>
       <c r="I25">
-        <v>3.443031727872239</v>
+        <v>3.189692549060483</v>
       </c>
       <c r="J25">
-        <v>11.40042036510001</v>
+        <v>11.53933803744136</v>
       </c>
       <c r="K25">
-        <v>15.55719741460978</v>
+        <v>14.44173160097646</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>11.61648599762881</v>
       </c>
       <c r="M25">
-        <v>18.20432403499387</v>
+        <v>9.658909160296641</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.60296405012826</v>
+        <v>18.38196373747447</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>17.80101881122971</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
